--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
   <si>
     <t>API</t>
   </si>
@@ -648,8 +648,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
-      <selection activeCell="L17" sqref="L2:L17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -811,9 +811,6 @@
       <c r="J5" t="s">
         <v>28</v>
       </c>
-      <c r="K5" t="s">
-        <v>12</v>
-      </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -1039,7 +1036,7 @@
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
   <si>
     <t>API</t>
   </si>
@@ -85,18 +85,12 @@
     <t>POST</t>
   </si>
   <si>
-    <t>status=201||followRelationship:IS_FOLLOWER</t>
-  </si>
-  <si>
     <t>1PNOTIFY</t>
   </si>
   <si>
     <t>X-1P-User=(SYS_USER1)</t>
   </si>
   <si>
-    <t>status=200||followRelationship:IS_FOLLOWED</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER2)</t>
   </si>
   <si>
@@ -256,25 +250,38 @@
     <t>/comments/comment/(S1_TC_T7_comments.id)</t>
   </si>
   <si>
-    <t>status=200||targetType=TRRecord||id=(S1_TC_T7_comments.id)||content=</t>
-  </si>
-  <si>
     <t>Stop following a user and verify follow relationship</t>
   </si>
   <si>
     <t>/comments/comment/(S1_TC_T13_comments.id)</t>
   </si>
   <si>
-    <t>status=200||targetType=TRRecord||id=(S1_TC_T13_comments.id)||content=</t>
-  </si>
-  <si>
     <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||article.id=(S1_TC_T5_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>status=200||targetType=TRRecord||id=(S1_TC_T7_comments.id)||content=""</t>
+  </si>
+  <si>
+    <t>status=200||targetType=TRRecord||id=(S1_TC_T13_comments.id)||content=""</t>
+  </si>
+  <si>
+    <t>status=201||followRelationship=IS_FOLLOWER</t>
+  </si>
+  <si>
+    <t>status=200||followRelationship=IS_NONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -648,24 +655,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="78.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="73.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="57.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="78.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -727,35 +734,43 @@
       <c r="H2" s="4"/>
       <c r="I2" s="1"/>
       <c r="J2" t="s">
-        <v>23</v>
+        <v>85</v>
       </c>
       <c r="K2" s="1"/>
+      <c r="L2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
       <c r="F3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="s">
         <v>16</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -763,23 +778,29 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
         <v>1</v>
       </c>
+      <c r="F4"/>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H4"/>
+      <c r="I4"/>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>34</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -787,357 +808,407 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
-      </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>31</v>
       </c>
       <c r="E5" t="s">
         <v>1</v>
       </c>
       <c r="F5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
         <v>12</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" t="s">
         <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>39</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
+      </c>
+      <c r="L6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
         <v>44</v>
       </c>
-      <c r="C7" t="s">
-        <v>43</v>
-      </c>
-      <c r="D7" t="s">
-        <v>73</v>
-      </c>
-      <c r="E7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" t="s">
-        <v>46</v>
-      </c>
+      <c r="G7"/>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J7" t="s">
         <v>16</v>
       </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="90">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" t="s">
         <v>47</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>49</v>
-      </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G8" s="7"/>
       <c r="H8" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="L8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E9" t="s">
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="60">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
         <v>22</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G10"/>
       <c r="H10" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I10" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="J10" s="4" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" t="s">
+        <v>56</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="B11" t="s">
-        <v>60</v>
-      </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E11" t="s">
         <v>1</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="60">
       <c r="A12" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>51</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G12"/>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="J12" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="G13"/>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J13" t="s">
         <v>16</v>
       </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="90">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>22</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I14" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="J14" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="L14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="A15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>70</v>
-      </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" t="s">
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="60">
       <c r="A16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>57</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>84</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C17" t="s">
         <v>20</v>
@@ -1148,12 +1219,16 @@
       <c r="E17" t="s">
         <v>18</v>
       </c>
+      <c r="F17"/>
+      <c r="G17"/>
       <c r="H17"/>
-      <c r="I17" t="s">
-        <v>12</v>
-      </c>
+      <c r="I17"/>
       <c r="J17" t="s">
-        <v>26</v>
+        <v>86</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
   <si>
     <t>API</t>
   </si>
@@ -73,9 +73,6 @@
     <t>DELETE</t>
   </si>
   <si>
-    <t>Start following a user and verify the follow relationship.</t>
-  </si>
-  <si>
     <t>1PFOLLOW</t>
   </si>
   <si>
@@ -97,12 +94,6 @@
     <t>status=200||type=FOLLOW||issuer.truid=(SYS_USER1)</t>
   </si>
   <si>
-    <t>Get Notifications by passing user id and chek follow notification</t>
-  </si>
-  <si>
-    <t>Get Notifications</t>
-  </si>
-  <si>
     <t>/notify/list</t>
   </si>
   <si>
@@ -115,15 +106,9 @@
     <t>S1_TC_T5</t>
   </si>
   <si>
-    <t xml:space="preserve">Get Notifications by passing wrong information and testing error status </t>
-  </si>
-  <si>
     <t>status=500</t>
   </si>
   <si>
-    <t>Search for documents</t>
-  </si>
-  <si>
     <t>1PSEARCH</t>
   </si>
   <si>
@@ -142,9 +127,6 @@
     <t>1PCITATIONS</t>
   </si>
   <si>
-    <t>Add new item to watchlist</t>
-  </si>
-  <si>
     <t>PUT</t>
   </si>
   <si>
@@ -169,15 +151,9 @@
     <t>comments.id</t>
   </si>
   <si>
-    <t>status=200||comments.userId=(SYS_USER1)||comments.targetType=TRRecord</t>
-  </si>
-  <si>
     <t>S1_TC_T9</t>
   </si>
   <si>
-    <t>Appreciate comment</t>
-  </si>
-  <si>
     <t>{"appreciate":"UP"}</t>
   </si>
   <si>
@@ -187,30 +163,12 @@
     <t>S1_TC_T10</t>
   </si>
   <si>
-    <t>Get Notifications by passing user id and chek comment notification</t>
-  </si>
-  <si>
-    <t>Get Notifications by passing user id and chek comment appriciation notification</t>
-  </si>
-  <si>
-    <t>Delete comment</t>
-  </si>
-  <si>
     <t>S1_TC_T11</t>
   </si>
   <si>
     <t>S1_TC_T12</t>
   </si>
   <si>
-    <t>Delete item from watchlist</t>
-  </si>
-  <si>
-    <t>Create comment in watching document</t>
-  </si>
-  <si>
-    <t>Create comment in unwatching document</t>
-  </si>
-  <si>
     <t>S1_TC_T13</t>
   </si>
   <si>
@@ -220,68 +178,145 @@
     <t>S1_TC_T15</t>
   </si>
   <si>
-    <t>Get Notifications by passing user id and chek following user added comment notification</t>
-  </si>
-  <si>
-    <t>status=200||comments.userId=(SYS_USER2)||comments.targetType=TRRecord</t>
-  </si>
-  <si>
     <t>S1_TC_T16</t>
   </si>
   <si>
-    <t>/lists/watchlist/(S1_TC_T5_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>{"targetType":"TRRecord","targetId":"(S1_TC_T5_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||article.id=(S1_TC_T5_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>/appreciation/appreciate/Comment/(S1_TC_T7_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(S1_TC_T7_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||article.id=(S1_TC_T5_hits.hits._id)||issuer.truid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>/comments/comment/(S1_TC_T7_comments.id)</t>
-  </si>
-  <si>
-    <t>Stop following a user and verify follow relationship</t>
-  </si>
-  <si>
-    <t>/comments/comment/(S1_TC_T13_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||article.id=(S1_TC_T5_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>status=200||targetType=TRRecord||id=(S1_TC_T7_comments.id)||content=""</t>
-  </si>
-  <si>
-    <t>status=200||targetType=TRRecord||id=(S1_TC_T13_comments.id)||content=""</t>
-  </si>
-  <si>
     <t>status=201||followRelationship=IS_FOLLOWER</t>
   </si>
   <si>
     <t>status=200||followRelationship=IS_NONE</t>
+  </si>
+  <si>
+    <t>Verify that Start following a user and verify the follow relationship for notification test.</t>
+  </si>
+  <si>
+    <t>Verify that to get notification for user</t>
+  </si>
+  <si>
+    <t>Verify that error status by doesn't passing header to  Notify API</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when he is followed by someone</t>
+  </si>
+  <si>
+    <t>Verify that to get document id for adding document in to users watch list</t>
+  </si>
+  <si>
+    <t>Verify that user able to sdd new item to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>Verify that user1 create comment in user2 watching document</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on an article</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>{"targetType":"TRRecord","targetId":"(S1_TC_T3_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>?size=2</t>
+  </si>
+  <si>
+    <t>Verify that user Appreciate comment for notification test</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/Comment/(S1_TC_T10_comments.id)</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment an article</t>
+  </si>
+  <si>
+    <t>Verify that user able to delete comment</t>
+  </si>
+  <si>
+    <t>Verify that user able to remove item from watchlist</t>
+  </si>
+  <si>
+    <t>/comments/comment/(S1_TC_T10_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||article.id=(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||article.id=(S1_TC_T3_hits.hits._id)||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||article.id=(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>Verify that user create comment for testing his followers getting notification</t>
+  </si>
+  <si>
+    <t>S1_TC_T17</t>
+  </si>
+  <si>
+    <t>S1_TC_T18</t>
+  </si>
+  <si>
+    <t>/comments/comment/(S1_TC_T16_comments.id)</t>
+  </si>
+  <si>
+    <t>verify that user able to unfollow a following user</t>
+  </si>
+  <si>
+    <t>/follow/user/(SYS_USER2)/following/(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>S1_TC_T19</t>
+  </si>
+  <si>
+    <t>Verify that start following a user for my follower get notification for FOAF.</t>
+  </si>
+  <si>
+    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
+  </si>
+  <si>
+    <t>S1_TC_T20</t>
+  </si>
+  <si>
+    <t>S1_TC_T21</t>
+  </si>
+  <si>
+    <t>S1_TC_T22</t>
+  </si>
+  <si>
+    <t>/comments/comment/(S1_TC_T5_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(S1_TC_T5_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(S1_TC_T10_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(S1_TC_T16_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200|id=(S1_TC_T10_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(S1_TC_T10_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -653,26 +688,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L17"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G13" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="73.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="57.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="78.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="78.140625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -717,28 +752,27 @@
       <c r="A2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
+      <c r="B2" t="s">
+        <v>58</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="1"/>
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2"/>
       <c r="J2" t="s">
-        <v>85</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" t="s">
-        <v>82</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -746,31 +780,23 @@
         <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3" t="s">
-        <v>24</v>
-      </c>
       <c r="G3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H3"/>
-      <c r="I3"/>
       <c r="J3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>82</v>
+        <v>30</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -778,29 +804,26 @@
         <v>15</v>
       </c>
       <c r="B4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4"/>
-      <c r="G4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4"/>
-      <c r="I4"/>
-      <c r="J4" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="K4"/>
-      <c r="L4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -808,273 +831,242 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>27</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>66</v>
       </c>
       <c r="E5" t="s">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="J5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="90">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="7"/>
+      <c r="H6" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" t="s">
-        <v>37</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="E7" t="s">
         <v>1</v>
       </c>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" t="s">
-        <v>43</v>
-      </c>
       <c r="F7" t="s">
-        <v>44</v>
-      </c>
-      <c r="G7"/>
+        <v>24</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>32</v>
-      </c>
-      <c r="J7" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="90">
+        <v>29</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>22</v>
+        <v>92</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="4" t="s">
-        <v>72</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H8"/>
       <c r="I8" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L8" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
-        <v>46</v>
-      </c>
-      <c r="B9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>57</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="1"/>
+      <c r="J9" t="s">
+        <v>55</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
         <v>1</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10"/>
+      <c r="I10" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" t="s">
         <v>25</v>
       </c>
-      <c r="G9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9"/>
-      <c r="I9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K9"/>
-      <c r="L9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="60">
-      <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="C10" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" t="s">
+    </row>
+    <row r="11" spans="1:12" ht="90">
+      <c r="A11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I11" t="s">
+        <v>40</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10"/>
-      <c r="H10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="I10" t="s">
-        <v>45</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30">
-      <c r="A11" t="s">
-        <v>56</v>
-      </c>
-      <c r="B11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" t="s">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>1</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
-        <v>30</v>
-      </c>
-      <c r="H11"/>
-      <c r="I11" t="s">
-        <v>52</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K11"/>
-      <c r="L11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="60">
-      <c r="A12" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
-      <c r="D12" t="s">
-        <v>77</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G12"/>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>52</v>
-      </c>
-      <c r="J12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>48</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="60">
       <c r="A13" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" t="s">
-        <v>62</v>
+        <v>50</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
@@ -1083,152 +1075,292 @@
         <v>71</v>
       </c>
       <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" t="s">
+        <v>50</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60">
+      <c r="A15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
         <v>18</v>
       </c>
-      <c r="F13" t="s">
-        <v>44</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13"/>
-      <c r="I13" t="s">
-        <v>40</v>
-      </c>
-      <c r="J13" t="s">
-        <v>16</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="90">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="C14" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" t="s">
-        <v>48</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I14" t="s">
-        <v>32</v>
-      </c>
-      <c r="J14" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="L14" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" t="s">
-        <v>29</v>
-      </c>
-      <c r="E15" t="s">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
-        <v>24</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
+      <c r="F15" s="6" t="s">
+        <v>43</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="60">
+        <v>45</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" t="s">
-        <v>67</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
+        <v>53</v>
+      </c>
+      <c r="B16" t="s">
+        <v>74</v>
       </c>
       <c r="C16" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G16"/>
+      <c r="F16" t="s">
+        <v>38</v>
+      </c>
       <c r="H16"/>
       <c r="I16" t="s">
+        <v>35</v>
+      </c>
+      <c r="J16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="90">
+      <c r="A17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30">
+      <c r="A18" t="s">
+        <v>81</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="J16" s="4" t="s">
+      <c r="C18" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" t="s">
+        <v>23</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18"/>
+      <c r="I18" t="s">
+        <v>54</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60">
+      <c r="A19" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s">
+        <v>83</v>
+      </c>
+      <c r="E19" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19"/>
+      <c r="I19" t="s">
+        <v>54</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="4"/>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="K20" s="1"/>
+    </row>
+    <row r="21" spans="1:11" ht="30">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C21" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21"/>
+      <c r="I21" t="s">
+        <v>86</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
         <v>20</v>
       </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="E22" t="s">
         <v>18</v>
       </c>
-      <c r="F17"/>
-      <c r="G17"/>
-      <c r="H17"/>
-      <c r="I17"/>
-      <c r="J17" t="s">
-        <v>86</v>
-      </c>
-      <c r="K17"/>
-      <c r="L17" t="s">
-        <v>82</v>
+      <c r="H22"/>
+      <c r="J22" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C23" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" t="s">
+        <v>85</v>
+      </c>
+      <c r="E23" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23"/>
+      <c r="J23" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
   <si>
     <t>API</t>
   </si>
@@ -214,12 +214,6 @@
     <t>Verify that user receives a notification when someone he is following comments on an article</t>
   </si>
   <si>
-    <t>/lists/watchlist/(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>{"targetType":"TRRecord","targetId":"(S1_TC_T3_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when his follower comments on an article contained in his watchlist</t>
   </si>
   <si>
@@ -247,15 +241,6 @@
     <t>status=200||comments.userId=(SYS_USER2)</t>
   </si>
   <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||article.id=(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||article.id=(S1_TC_T3_hits.hits._id)||issuer.truid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||article.id=(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
     <t>Verify that user create comment for testing his followers getting notification</t>
   </si>
   <si>
@@ -307,16 +292,41 @@
     <t>status=200|id=(S1_TC_T10_comments.id)</t>
   </si>
   <si>
-    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(S1_TC_T10_comments.id)</t>
-  </si>
-  <si>
     <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>Verify that user2 create comment in user1 watching document</t>
+  </si>
+  <si>
+    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(S1_TC_T10_comments.id)||type[0]=DocumentComment</t>
+  </si>
+  <si>
+    <t>{"targetType":"wos","targetId":"(S1_TC_T3_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/wos::(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||publication.id=(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(S1_TC_T3_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||issuer.truid=(SYS_USER2)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -690,24 +700,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L23"/>
+    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="57.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.42578125" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="78.140625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="73.0" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="57.42578125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="78.140625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -771,8 +781,13 @@
         <v>28</v>
       </c>
       <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" t="s">
         <v>16</v>
+      </c>
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -791,12 +806,18 @@
       <c r="E3" t="s">
         <v>1</v>
       </c>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>28</v>
       </c>
       <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" t="s">
         <v>30</v>
+      </c>
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -825,6 +846,9 @@
       <c r="K4" s="1" t="s">
         <v>34</v>
       </c>
+      <c r="L4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
@@ -837,7 +861,7 @@
         <v>36</v>
       </c>
       <c r="D5" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>37</v>
@@ -845,6 +869,7 @@
       <c r="F5" t="s">
         <v>38</v>
       </c>
+      <c r="G5"/>
       <c r="H5"/>
       <c r="I5" t="s">
         <v>15</v>
@@ -852,13 +877,17 @@
       <c r="J5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" ht="90">
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="75">
       <c r="A6" t="s">
         <v>29</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>93</v>
       </c>
       <c r="C6" t="s">
         <v>41</v>
@@ -874,7 +903,7 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I6" t="s">
         <v>17</v>
@@ -885,8 +914,11 @@
       <c r="K6" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
+      <c r="L6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="45">
       <c r="A7" t="s">
         <v>35</v>
       </c>
@@ -913,7 +945,11 @@
         <v>29</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>79</v>
+        <v>97</v>
+      </c>
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
@@ -921,13 +957,13 @@
         <v>39</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
         <v>41</v>
       </c>
       <c r="D8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E8" t="s">
         <v>18</v>
@@ -935,12 +971,17 @@
       <c r="F8" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="G8"/>
       <c r="H8"/>
       <c r="I8" t="s">
         <v>15</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>93</v>
+        <v>88</v>
+      </c>
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
@@ -967,6 +1008,9 @@
         <v>55</v>
       </c>
       <c r="K9" s="1"/>
+      <c r="L9" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -997,8 +1041,12 @@
       <c r="J10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="90">
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="75">
       <c r="A11" t="s">
         <v>48</v>
       </c>
@@ -1019,7 +1067,7 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I11" t="s">
         <v>40</v>
@@ -1029,6 +1077,9 @@
       </c>
       <c r="K11" s="7" t="s">
         <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
@@ -1036,7 +1087,7 @@
         <v>49</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" t="s">
         <v>22</v>
@@ -1051,14 +1102,18 @@
         <v>24</v>
       </c>
       <c r="G12" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
         <v>48</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="60">
@@ -1066,13 +1121,13 @@
         <v>50</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
         <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
         <v>21</v>
@@ -1080,6 +1135,7 @@
       <c r="F13" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="G13"/>
       <c r="H13" s="5" t="s">
         <v>46</v>
       </c>
@@ -1087,7 +1143,11 @@
         <v>48</v>
       </c>
       <c r="J13" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
@@ -1095,7 +1155,7 @@
         <v>51</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -1117,7 +1177,11 @@
         <v>50</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>78</v>
+        <v>101</v>
+      </c>
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="60">
@@ -1125,13 +1189,13 @@
         <v>52</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C15" t="s">
         <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1139,12 +1203,17 @@
       <c r="F15" s="6" t="s">
         <v>43</v>
       </c>
+      <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
         <v>45</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>96</v>
+        <v>91</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1152,13 +1221,13 @@
         <v>53</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C16" t="s">
         <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1166,20 +1235,25 @@
       <c r="F16" t="s">
         <v>38</v>
       </c>
+      <c r="G16"/>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="J16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" ht="90">
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="75">
       <c r="A17" t="s">
         <v>54</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C17" t="s">
         <v>41</v>
@@ -1195,21 +1269,24 @@
       </c>
       <c r="G17" s="7"/>
       <c r="H17" s="4" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="I17" t="s">
         <v>15</v>
       </c>
       <c r="J17" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" ht="30">
+      <c r="L17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>65</v>
@@ -1234,21 +1311,25 @@
         <v>54</v>
       </c>
       <c r="J18" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K18"/>
+      <c r="L18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60">
+      <c r="A19" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" ht="60">
-      <c r="A19" t="s">
-        <v>82</v>
-      </c>
       <c r="B19" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C19" t="s">
         <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1256,26 +1337,31 @@
       <c r="F19" s="6" t="s">
         <v>47</v>
       </c>
+      <c r="G19"/>
       <c r="H19"/>
       <c r="I19" t="s">
         <v>54</v>
       </c>
       <c r="J19" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
+        <v>90</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C20" t="s">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>21</v>
@@ -1290,13 +1376,16 @@
         <v>55</v>
       </c>
       <c r="K20" s="1"/>
-    </row>
-    <row r="21" spans="1:11" ht="30">
+      <c r="L20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="30">
       <c r="A21" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C21" t="s">
         <v>22</v>
@@ -1315,18 +1404,22 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11">
+        <v>92</v>
+      </c>
+      <c r="K21"/>
+      <c r="L21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" t="s">
         <v>19</v>
@@ -1337,30 +1430,44 @@
       <c r="E22" t="s">
         <v>18</v>
       </c>
+      <c r="F22"/>
+      <c r="G22"/>
       <c r="H22"/>
+      <c r="I22"/>
       <c r="J22" s="5" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="K22"/>
+      <c r="L22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C23" t="s">
         <v>19</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
       </c>
+      <c r="F23"/>
+      <c r="G23"/>
       <c r="H23"/>
+      <c r="I23"/>
       <c r="J23" t="s">
         <v>56</v>
+      </c>
+      <c r="K23"/>
+      <c r="L23" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
   <si>
     <t>API</t>
   </si>
@@ -52,24 +52,12 @@
     <t>STORE</t>
   </si>
   <si>
-    <t>S1_TC_T1</t>
-  </si>
-  <si>
     <t>DEPENDENCYTESTS</t>
   </si>
   <si>
-    <t>S1_TC_T2</t>
-  </si>
-  <si>
-    <t>S1_TC_T3</t>
-  </si>
-  <si>
     <t>status=200</t>
   </si>
   <si>
-    <t>S1_TC_T4</t>
-  </si>
-  <si>
     <t>DELETE</t>
   </si>
   <si>
@@ -103,15 +91,9 @@
     <t>?size=10</t>
   </si>
   <si>
-    <t>S1_TC_T5</t>
-  </si>
-  <si>
     <t>status=500</t>
   </si>
   <si>
-    <t>1PSEARCH</t>
-  </si>
-  <si>
     <t>/search</t>
   </si>
   <si>
@@ -121,9 +103,6 @@
     <t>hits.hits._id</t>
   </si>
   <si>
-    <t>S1_TC_T6</t>
-  </si>
-  <si>
     <t>1PCITATIONS</t>
   </si>
   <si>
@@ -133,12 +112,6 @@
     <t>x-1p-user=(SYS_USER2)</t>
   </si>
   <si>
-    <t>S1_TC_T7</t>
-  </si>
-  <si>
-    <t>S1_TC_T8</t>
-  </si>
-  <si>
     <t>1PAUTHORING</t>
   </si>
   <si>
@@ -151,36 +124,12 @@
     <t>comments.id</t>
   </si>
   <si>
-    <t>S1_TC_T9</t>
-  </si>
-  <si>
     <t>{"appreciate":"UP"}</t>
   </si>
   <si>
     <t>X-1P-User=(SYS_USER2)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>S1_TC_T10</t>
-  </si>
-  <si>
-    <t>S1_TC_T11</t>
-  </si>
-  <si>
-    <t>S1_TC_T12</t>
-  </si>
-  <si>
-    <t>S1_TC_T13</t>
-  </si>
-  <si>
-    <t>S1_TC_T14</t>
-  </si>
-  <si>
-    <t>S1_TC_T15</t>
-  </si>
-  <si>
-    <t>S1_TC_T16</t>
-  </si>
-  <si>
     <t>status=201||followRelationship=IS_FOLLOWER</t>
   </si>
   <si>
@@ -202,9 +151,6 @@
     <t>Verify that to get document id for adding document in to users watch list</t>
   </si>
   <si>
-    <t>Verify that user able to sdd new item to his watchlist for notification test</t>
-  </si>
-  <si>
     <t>Verify that user1 create comment in user2 watching document</t>
   </si>
   <si>
@@ -223,9 +169,6 @@
     <t>Verify that user Appreciate comment for notification test</t>
   </si>
   <si>
-    <t>/appreciation/appreciate/Comment/(S1_TC_T10_comments.id)</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification if someone likes his comment an article</t>
   </si>
   <si>
@@ -235,98 +178,292 @@
     <t>Verify that user able to remove item from watchlist</t>
   </si>
   <si>
-    <t>/comments/comment/(S1_TC_T10_comments.id)</t>
-  </si>
-  <si>
     <t>status=200||comments.userId=(SYS_USER2)</t>
   </si>
   <si>
     <t>Verify that user create comment for testing his followers getting notification</t>
   </si>
   <si>
-    <t>S1_TC_T17</t>
-  </si>
-  <si>
-    <t>S1_TC_T18</t>
-  </si>
-  <si>
-    <t>/comments/comment/(S1_TC_T16_comments.id)</t>
-  </si>
-  <si>
     <t>verify that user able to unfollow a following user</t>
   </si>
   <si>
     <t>/follow/user/(SYS_USER2)/following/(SYS_USER3)</t>
   </si>
   <si>
-    <t>S1_TC_T19</t>
-  </si>
-  <si>
     <t>Verify that start following a user for my follower get notification for FOAF.</t>
   </si>
   <si>
     <t>Verify that user is able to receive notification when my friend is following some other user.</t>
   </si>
   <si>
-    <t>S1_TC_T20</t>
-  </si>
-  <si>
-    <t>S1_TC_T21</t>
-  </si>
-  <si>
-    <t>S1_TC_T22</t>
-  </si>
-  <si>
-    <t>/comments/comment/(S1_TC_T5_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||id=(S1_TC_T5_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(S1_TC_T10_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||id=(S1_TC_T16_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200|id=(S1_TC_T10_comments.id)</t>
-  </si>
-  <si>
     <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
   </si>
   <si>
-    <t>Verify that user2 create comment in user1 watching document</t>
-  </si>
-  <si>
-    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(S1_TC_T10_comments.id)||type[0]=DocumentComment</t>
-  </si>
-  <si>
-    <t>{"targetType":"wos","targetId":"(S1_TC_T3_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
-    <t>/lists/watchlist/wos::(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||publication.id=(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(S1_TC_T3_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>PASS</t>
-  </si>
-  <si>
-    <t>FAIL</t>
-  </si>
-  <si>
     <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>OPQA-874</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/wos::(OPQA-874_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER1)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>Verify that user able to add new item to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>OPQA-259</t>
+  </si>
+  <si>
+    <t>OPQA-236</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>OPQA-286</t>
+  </si>
+  <si>
+    <t>OPQA-450</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>OPQA-450_1</t>
+  </si>
+  <si>
+    <t>OPQA-236_1</t>
+  </si>
+  <si>
+    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(OPQA-236_1_comments.id)||type[0]=DocumentComment</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/Comment/(OPQA-236_1_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-236_1_comments.id)</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-236_1_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200|id=(OPQA-236_1_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-286_1</t>
+  </si>
+  <si>
+    <t>OPQA-286_2</t>
+  </si>
+  <si>
+    <t>OPQA-210</t>
+  </si>
+  <si>
+    <t>OPQA-284</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>OPQA-260</t>
+  </si>
+  <si>
+    <t>OPQA-236_2</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-236_2_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-236_2_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>OPQA-213</t>
+  </si>
+  <si>
+    <t>OPQA-461</t>
+  </si>
+  <si>
+    <t>OPQA-461_1</t>
+  </si>
+  <si>
+    <t>OPQA-875</t>
+  </si>
+  <si>
+    <t>OPQA-876</t>
+  </si>
+  <si>
+    <t>OPQA-360</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a post and publish it.</t>
+  </si>
+  <si>
+    <t>/posts/</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing"}</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER2)||found=true</t>
+  </si>
+  <si>
+    <t>OPQA-259_1</t>
+  </si>
+  <si>
+    <t>Verify that user able to add new post to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>x-1p-user=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>OPQA-385</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add comments on the posts.</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER3)||Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER3)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user able to recevies a notification when other user commented on his post </t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>OPQA-364</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to appreciate the Comments of other users on the post</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/Comment/(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user can delete the comments user authored themselves and validate the comment count</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-286_3</t>
+  </si>
+  <si>
+    <t>status=200||type=POST_CREATED||post.id=(OPQA-360_id)||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user published a post</t>
+  </si>
+  <si>
+    <t>/lists/watchlist/posts::(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||type=MyDocumentComment||comments.data.id=(OPQA-385_comments.id)||comments.data.issuer.truid=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.id=(OPQA-385_comments.id)||comments.data.issuer.truid=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>1PSEARCHV3</t>
+  </si>
+  <si>
+    <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>OPQA-484</t>
+  </si>
+  <si>
+    <t>Verify that to get posts for user</t>
+  </si>
+  <si>
+    <t>/posts/user/(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>posts.id</t>
+  </si>
+  <si>
+    <t>OPQA-385_1</t>
+  </si>
+  <si>
+    <t>{"targetType":"posts","targetId":"(OPQA-484_posts.id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER2)||comments.targetType=Post||comments.targetId=(OPQA-484_posts.id)||comments.content=Notification Test</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>OPQA-286_4</t>
+  </si>
+  <si>
+    <t>Verify that user can delete the comment</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-385_1_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER3)||issuer.truid=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-484_posts.id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -385,7 +522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -404,6 +541,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -698,33 +842,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E12" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18:A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="12.140625" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="73.0" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="14.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="57.42578125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="5" width="17.42578125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="78.140625" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="73" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="60.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.5703125" style="5" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="78.140625" style="5" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -746,9 +890,9 @@
         <v>9</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="3" t="s">
         <v>10</v>
       </c>
       <c r="K1" s="2" t="s">
@@ -759,719 +903,1048 @@
       </c>
     </row>
     <row r="2" spans="1:12">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>58</v>
+      <c r="A2" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" t="s">
-        <v>26</v>
       </c>
       <c r="E2" t="s">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2"/>
-      <c r="L2" t="s">
-        <v>99</v>
+      <c r="J2" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:12">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" t="s">
-        <v>59</v>
+      <c r="A3" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>42</v>
       </c>
       <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
         <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>26</v>
       </c>
       <c r="E3" t="s">
         <v>1</v>
       </c>
-      <c r="F3"/>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3"/>
-      <c r="L3" t="s">
-        <v>99</v>
+      <c r="J3" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>61</v>
+        <v>62</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>131</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
+      <c r="J4" s="4"/>
       <c r="K4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" t="s">
-        <v>99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>62</v>
+        <v>68</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>67</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5"/>
+        <v>31</v>
+      </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5"/>
-      <c r="L5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="75">
-      <c r="A6" t="s">
-        <v>29</v>
+        <v>62</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="60">
+      <c r="A6" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>93</v>
+        <v>45</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="4" t="s">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="I6" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L6" t="s">
-        <v>99</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="45">
-      <c r="A7" t="s">
-        <v>35</v>
+      <c r="A7" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
       </c>
       <c r="E7" t="s">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>29</v>
+        <v>69</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="K7"/>
-      <c r="L7" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
-      <c r="A8" t="s">
-        <v>39</v>
+      <c r="A8" s="7" t="s">
+        <v>74</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8"/>
+        <v>34</v>
+      </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8"/>
-      <c r="L8" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>57</v>
-      </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="4"/>
       <c r="I9" s="1"/>
-      <c r="J9" t="s">
-        <v>55</v>
+      <c r="J9" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="K9" s="1"/>
-      <c r="L9" t="s">
-        <v>99</v>
-      </c>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="C10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
       </c>
       <c r="E10" t="s">
         <v>1</v>
       </c>
       <c r="F10" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="G10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J10" t="s">
-        <v>25</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60">
+      <c r="A11" s="7" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" t="s">
-        <v>48</v>
-      </c>
       <c r="B11" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" t="s">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>21</v>
+        <v>100</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="G11" s="7"/>
-      <c r="H11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L11" t="s">
-        <v>99</v>
+      <c r="H11" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" s="7"/>
+      <c r="J11" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
-      <c r="A12" t="s">
-        <v>49</v>
+      <c r="A12" s="7" t="s">
+        <v>133</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>66</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" t="s">
         <v>22</v>
-      </c>
-      <c r="D12" t="s">
-        <v>26</v>
       </c>
       <c r="E12" t="s">
         <v>1</v>
       </c>
       <c r="F12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="G12" t="s">
-        <v>67</v>
+        <v>23</v>
       </c>
       <c r="H12"/>
-      <c r="I12" t="s">
-        <v>48</v>
+      <c r="I12" s="7" t="s">
+        <v>99</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>128</v>
+      </c>
+      <c r="E13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13"/>
+      <c r="I13" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" ht="60">
-      <c r="A13" t="s">
-        <v>50</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C13" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" t="s">
-        <v>69</v>
-      </c>
-      <c r="E13" t="s">
-        <v>21</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13"/>
-      <c r="H13" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="I13" t="s">
-        <v>48</v>
-      </c>
-      <c r="J13" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
+      <c r="J13" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60">
+      <c r="A14" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G14" s="7"/>
+      <c r="H14" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="I14" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="30">
-      <c r="A14" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="J14" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30">
+      <c r="A15" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" t="s">
         <v>22</v>
       </c>
-      <c r="D14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" t="s">
+      <c r="E15" t="s">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
+        <v>20</v>
+      </c>
+      <c r="G15" t="s">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14"/>
-      <c r="I14" t="s">
-        <v>50</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="60">
-      <c r="A15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="G15"/>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>45</v>
-      </c>
-      <c r="J15" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" t="s">
-        <v>53</v>
-      </c>
-      <c r="B16" t="s">
-        <v>72</v>
+        <v>108</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30">
+      <c r="A16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>114</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="D16" t="s">
-        <v>96</v>
+        <v>22</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
-      </c>
-      <c r="G16"/>
+        <v>19</v>
+      </c>
+      <c r="G16" t="s">
+        <v>23</v>
+      </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>29</v>
-      </c>
-      <c r="J16" t="s">
-        <v>16</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="75">
-      <c r="A17" t="s">
-        <v>54</v>
+        <v>108</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60">
+      <c r="A17" s="7" t="s">
+        <v>116</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" t="s">
-        <v>42</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>21</v>
+        <v>117</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>17</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G17" s="7"/>
-      <c r="H17" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="L17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30">
-      <c r="A18" t="s">
-        <v>76</v>
+      <c r="H17" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="I17" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="K17" s="7"/>
+    </row>
+    <row r="18" spans="1:11" ht="30">
+      <c r="A18" s="7" t="s">
+        <v>122</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>65</v>
+        <v>120</v>
       </c>
       <c r="C18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18" t="s">
         <v>22</v>
-      </c>
-      <c r="D18" t="s">
-        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>1</v>
       </c>
       <c r="F18" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" t="s">
         <v>23</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
       <c r="H18"/>
-      <c r="I18" t="s">
-        <v>54</v>
-      </c>
       <c r="J18" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18"/>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="60">
-      <c r="A19" t="s">
-        <v>77</v>
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="7" t="s">
+        <v>105</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>78</v>
+        <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="G19"/>
+        <v>14</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
       <c r="H19"/>
       <c r="I19" t="s">
+        <v>99</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60">
+      <c r="A20" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K20" s="7"/>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="8"/>
+      <c r="J21" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="60">
+      <c r="A22" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="H22" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="I22" t="s">
+        <v>134</v>
+      </c>
+      <c r="J22" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30">
+      <c r="A23" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C23" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>1</v>
+      </c>
+      <c r="F23" t="s">
+        <v>19</v>
+      </c>
+      <c r="G23" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23"/>
+      <c r="J23" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="60">
+      <c r="A24" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="J24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="1:11" ht="60">
+      <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I25" t="s">
+        <v>75</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30">
+      <c r="A26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C26" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+      <c r="E26" t="s">
+        <v>1</v>
+      </c>
+      <c r="F26" t="s">
+        <v>20</v>
+      </c>
+      <c r="G26" t="s">
+        <v>49</v>
+      </c>
+      <c r="H26"/>
+      <c r="I26" t="s">
+        <v>78</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="60">
+      <c r="A27" t="s">
+        <v>87</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C27" t="s">
+        <v>32</v>
+      </c>
+      <c r="D27" t="s">
+        <v>80</v>
+      </c>
+      <c r="E27" t="s">
+        <v>17</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" t="s">
+        <v>78</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
+      <c r="A28" t="s">
+        <v>88</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" t="s">
+        <v>18</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" t="s">
+        <v>23</v>
+      </c>
+      <c r="H28"/>
+      <c r="I28" t="s">
+        <v>87</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="60">
+      <c r="A29" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>82</v>
+      </c>
+      <c r="E29" t="s">
+        <v>14</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" t="s">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" t="s">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30"/>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="60">
+      <c r="A31" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
+        <v>32</v>
+      </c>
+      <c r="D31" t="s">
+        <v>33</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="H31" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="J19" s="4" t="s">
+      <c r="K31" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30">
+      <c r="A32" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" t="s">
+        <v>1</v>
+      </c>
+      <c r="F32" t="s">
+        <v>19</v>
+      </c>
+      <c r="G32" t="s">
+        <v>23</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" t="s">
         <v>90</v>
       </c>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="J32" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="60">
+      <c r="A33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E33" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>90</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" s="1"/>
+      <c r="H34" s="4"/>
+      <c r="J34" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="30">
+      <c r="A35" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" t="s">
+        <v>1</v>
+      </c>
+      <c r="F35" t="s">
         <v>19</v>
       </c>
-      <c r="D20" t="s">
-        <v>80</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="4"/>
-      <c r="I20" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="K20" s="1"/>
-      <c r="L20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="30">
-      <c r="A21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>1</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="G35" t="s">
         <v>23</v>
       </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22" t="s">
-        <v>85</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22"/>
-      <c r="G22"/>
-      <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" s="5" t="s">
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>77</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K22"/>
-      <c r="L22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23" t="s">
-        <v>86</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" t="s">
-        <v>80</v>
-      </c>
-      <c r="E23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23"/>
-      <c r="G23"/>
-      <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="s">
+      <c r="C36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D36" t="s">
+        <v>16</v>
+      </c>
+      <c r="E36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36"/>
+      <c r="J36" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="K23"/>
-      <c r="L23" t="s">
-        <v>99</v>
+      <c r="C37" t="s">
+        <v>15</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>14</v>
+      </c>
+      <c r="H37"/>
+      <c r="J37" s="5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-874"/>
+    <hyperlink ref="A7" r:id="rId2" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-208"/>
+    <hyperlink ref="A10" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-206"/>
+    <hyperlink ref="A26" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-210"/>
+    <hyperlink ref="A28" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-209"/>
+    <hyperlink ref="A32" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-207"/>
+    <hyperlink ref="A35" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-213"/>
+    <hyperlink ref="A2" r:id="rId8" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-875"/>
+    <hyperlink ref="A3" r:id="rId9" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-876"/>
+    <hyperlink ref="A15" r:id="rId10" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-215"/>
+    <hyperlink ref="A16" r:id="rId11" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-217"/>
+    <hyperlink ref="A18" r:id="rId12" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-218"/>
+    <hyperlink ref="A12" r:id="rId13" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-877"/>
+    <hyperlink ref="A23" r:id="rId14" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-216"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="152">
   <si>
     <t>API</t>
   </si>
@@ -458,6 +458,18 @@
   </si>
   <si>
     <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-484_posts.id)</t>
+  </si>
+  <si>
+    <t>OPQA-776</t>
+  </si>
+  <si>
+    <t>Verify that the admin can delete any post as a moderator</t>
+  </si>
+  <si>
+    <t>/administration/posts/(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||targetType=posts||targetId=(OPQA-360_id)||hasSucceeded=true</t>
   </si>
 </sst>
 </file>
@@ -842,10 +854,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L37"/>
+  <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:A23"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1565,350 +1577,358 @@
       </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="1:11" ht="60">
-      <c r="A25" t="s">
+    <row r="25" spans="1:11" ht="30">
+      <c r="A25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J25" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="K25" s="7"/>
+    </row>
+    <row r="26" spans="1:11" ht="60">
+      <c r="A26" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B26" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C26" t="s">
         <v>32</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D26" t="s">
         <v>33</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="6" t="s">
+      <c r="F26" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="4" t="s">
+      <c r="G26" s="7"/>
+      <c r="H26" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="I25" t="s">
+      <c r="I26" t="s">
         <v>75</v>
       </c>
-      <c r="J25" s="4" t="s">
+      <c r="J26" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="K26" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
-      <c r="A26" t="s">
+    <row r="27" spans="1:11" ht="30">
+      <c r="A27" t="s">
         <v>86</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B27" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C27" t="s">
         <v>18</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D27" t="s">
         <v>22</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E27" t="s">
         <v>1</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F27" t="s">
         <v>20</v>
       </c>
-      <c r="G26" t="s">
+      <c r="G27" t="s">
         <v>49</v>
       </c>
-      <c r="H26"/>
-      <c r="I26" t="s">
-        <v>78</v>
-      </c>
-      <c r="J26" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="60">
-      <c r="A27" t="s">
-        <v>87</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" t="s">
-        <v>32</v>
-      </c>
-      <c r="D27" t="s">
-        <v>80</v>
-      </c>
-      <c r="E27" t="s">
-        <v>17</v>
-      </c>
-      <c r="F27" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>36</v>
-      </c>
+      <c r="H27"/>
       <c r="I27" t="s">
         <v>78</v>
       </c>
-      <c r="J27" s="4" t="s">
+      <c r="J27" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="60">
+      <c r="A28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
+        <v>78</v>
+      </c>
+      <c r="J28" s="4" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="28" spans="1:11" ht="30">
-      <c r="A28" t="s">
+    <row r="29" spans="1:11" ht="30">
+      <c r="A29" t="s">
         <v>88</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B29" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C29" t="s">
         <v>18</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E29" t="s">
         <v>1</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F29" t="s">
         <v>19</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G29" t="s">
         <v>23</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>87</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="60">
-      <c r="A29" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D29" t="s">
-        <v>82</v>
-      </c>
-      <c r="E29" t="s">
-        <v>14</v>
-      </c>
-      <c r="F29" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>78</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11">
-      <c r="A30" t="s">
-        <v>89</v>
+        <v>87</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="60">
+      <c r="A30" s="7" t="s">
+        <v>125</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>82</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
       </c>
-      <c r="F30" t="s">
-        <v>31</v>
+      <c r="F30" s="6" t="s">
+        <v>34</v>
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>62</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60">
-      <c r="A31" s="7" t="s">
-        <v>90</v>
+        <v>78</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" t="s">
+        <v>89</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C31" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="H31" s="4" t="s">
-        <v>64</v>
-      </c>
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31"/>
       <c r="I31" t="s">
         <v>62</v>
       </c>
-      <c r="J31" s="4" t="s">
+      <c r="J31" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="60">
+      <c r="A32" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" t="s">
+        <v>32</v>
+      </c>
+      <c r="D32" t="s">
+        <v>33</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="G32" s="7"/>
+      <c r="H32" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="K31" s="7" t="s">
+      <c r="K32" s="7" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
-      <c r="A32" s="7" t="s">
+    <row r="33" spans="1:11" ht="30">
+      <c r="A33" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B33" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>18</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>22</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>1</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F33" t="s">
         <v>19</v>
       </c>
-      <c r="G32" t="s">
+      <c r="G33" t="s">
         <v>23</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32" t="s">
-        <v>90</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="60">
-      <c r="A33" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
-      </c>
-      <c r="D33" t="s">
-        <v>91</v>
-      </c>
-      <c r="E33" t="s">
-        <v>14</v>
-      </c>
-      <c r="F33" s="6" t="s">
-        <v>37</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
         <v>90</v>
       </c>
-      <c r="J33" s="4" t="s">
+      <c r="J33" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="60">
+      <c r="A34" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="s">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" t="s">
+        <v>14</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>90</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="34" spans="1:11">
-      <c r="A34" t="s">
+    <row r="35" spans="1:11">
+      <c r="A35" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B35" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C34" t="s">
+      <c r="C35" t="s">
         <v>15</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D35" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
-      <c r="H34" s="4"/>
-      <c r="J34" s="5" t="s">
+      <c r="F35" s="1"/>
+      <c r="G35" s="1"/>
+      <c r="H35" s="4"/>
+      <c r="J35" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="K34" s="1"/>
-    </row>
-    <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="7" t="s">
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="30">
+      <c r="A36" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B36" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>18</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E36" t="s">
         <v>1</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F36" t="s">
         <v>19</v>
       </c>
-      <c r="G35" t="s">
+      <c r="G36" t="s">
         <v>23</v>
       </c>
-      <c r="H35"/>
-      <c r="I35" t="s">
+      <c r="H36"/>
+      <c r="I36" t="s">
         <v>77</v>
       </c>
-      <c r="J35" s="5" t="s">
+      <c r="J36" s="5" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11">
-      <c r="A36" t="s">
-        <v>95</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C36" t="s">
-        <v>15</v>
-      </c>
-      <c r="D36" t="s">
-        <v>16</v>
-      </c>
-      <c r="E36" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36"/>
-      <c r="J36" s="5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>56</v>
@@ -1917,13 +1937,34 @@
         <v>15</v>
       </c>
       <c r="D37" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="E37" t="s">
         <v>14</v>
       </c>
       <c r="H37"/>
       <c r="J37" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" t="s">
+        <v>96</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>15</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38"/>
+      <c r="J38" s="5" t="s">
         <v>39</v>
       </c>
     </row>
@@ -1932,10 +1973,10 @@
     <hyperlink ref="A4" r:id="rId1" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-874"/>
     <hyperlink ref="A7" r:id="rId2" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-208"/>
     <hyperlink ref="A10" r:id="rId3" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-206"/>
-    <hyperlink ref="A26" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-210"/>
-    <hyperlink ref="A28" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-209"/>
-    <hyperlink ref="A32" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-207"/>
-    <hyperlink ref="A35" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-213"/>
+    <hyperlink ref="A27" r:id="rId4" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-210"/>
+    <hyperlink ref="A29" r:id="rId5" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-209"/>
+    <hyperlink ref="A33" r:id="rId6" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-207"/>
+    <hyperlink ref="A36" r:id="rId7" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-213"/>
     <hyperlink ref="A2" r:id="rId8" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-875"/>
     <hyperlink ref="A3" r:id="rId9" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-876"/>
     <hyperlink ref="A15" r:id="rId10" display="http://jira.bjz.apac.ime.reuters.com/browse/OPQA-215"/>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -199,9 +199,6 @@
     <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
   </si>
   <si>
-    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER1)||issuer.truid=(SYS_USER2)</t>
-  </si>
-  <si>
     <t>OPQA-874</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>OPQA-236_1</t>
   </si>
   <si>
-    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(OPQA-236_1_comments.id)||type[0]=DocumentComment</t>
-  </si>
-  <si>
     <t>/appreciation/appreciate/Comment/(OPQA-236_1_comments.id)</t>
   </si>
   <si>
@@ -454,9 +448,6 @@
     <t>/comments/comment/(OPQA-385_1_comments.id)</t>
   </si>
   <si>
-    <t>status=200||type=Appreciation||comment.issuer.truid=(SYS_USER3)||issuer.truid=(SYS_USER1)</t>
-  </si>
-  <si>
     <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-484_posts.id)</t>
   </si>
   <si>
@@ -470,13 +461,22 @@
   </si>
   <si>
     <t>status=200||targetType=posts||targetId=(OPQA-360_id)||hasSucceeded=true</t>
+  </si>
+  <si>
+    <t>status=200||type[0]=WatchedDocumentComment||comments[0].data.id=(OPQA-236_1_comments.id)||type[1]=DocumentComment</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER2)||comment.id=(OPQA-236_1_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -488,6 +488,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -534,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -560,6 +567,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -856,7 +864,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L38"/>
     </sheetView>
   </sheetViews>
@@ -916,7 +924,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>41</v>
@@ -943,7 +951,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="7" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>42</v>
@@ -967,13 +975,13 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -994,16 +1002,16 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
         <v>30</v>
@@ -1013,7 +1021,7 @@
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>13</v>
@@ -1021,7 +1029,7 @@
     </row>
     <row r="6" spans="1:12" ht="60">
       <c r="A6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>45</v>
@@ -1040,10 +1048,10 @@
       </c>
       <c r="G6" s="7"/>
       <c r="H6" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6" s="4" t="s">
         <v>46</v>
@@ -1054,10 +1062,10 @@
     </row>
     <row r="7" spans="1:12" ht="45">
       <c r="A7" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C7" t="s">
         <v>18</v>
@@ -1076,15 +1084,15 @@
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:12" ht="60">
       <c r="A8" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>52</v>
@@ -1093,7 +1101,7 @@
         <v>32</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E8" t="s">
         <v>14</v>
@@ -1103,15 +1111,15 @@
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>40</v>
@@ -1136,7 +1144,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>43</v>
@@ -1158,7 +1166,7 @@
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>21</v>
@@ -1166,16 +1174,16 @@
     </row>
     <row r="11" spans="1:12" ht="60">
       <c r="A11" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E11" s="8" t="s">
         <v>17</v>
@@ -1185,22 +1193,22 @@
       </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="7"/>
       <c r="J11" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K11" s="8" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="30">
       <c r="A12" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C12" t="s">
         <v>18</v>
@@ -1219,34 +1227,34 @@
       </c>
       <c r="H12"/>
       <c r="I12" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:12">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>13</v>
@@ -1254,10 +1262,10 @@
     </row>
     <row r="14" spans="1:12" ht="60">
       <c r="A14" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C14" s="8" t="s">
         <v>32</v>
@@ -1269,17 +1277,17 @@
         <v>17</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I14" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K14" s="8" t="s">
         <v>35</v>
@@ -1287,10 +1295,10 @@
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="A15" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s">
         <v>18</v>
@@ -1309,18 +1317,18 @@
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C16" t="s">
         <v>18</v>
@@ -1339,24 +1347,24 @@
       </c>
       <c r="H16"/>
       <c r="I16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="60">
       <c r="A17" s="7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C17" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E17" s="8" t="s">
         <v>17</v>
@@ -1369,19 +1377,19 @@
         <v>36</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J17" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K17" s="7"/>
     </row>
     <row r="18" spans="1:11" ht="30">
       <c r="A18" s="7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C18" t="s">
         <v>18</v>
@@ -1393,38 +1401,38 @@
         <v>1</v>
       </c>
       <c r="F18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G18" t="s">
         <v>23</v>
       </c>
       <c r="H18"/>
       <c r="J18" s="5" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="7" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" t="s">
         <v>29</v>
       </c>
       <c r="D19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
         <v>14</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>13</v>
@@ -1432,27 +1440,27 @@
     </row>
     <row r="20" spans="1:11" ht="60">
       <c r="A20" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C20" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E20" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G20" s="7"/>
       <c r="H20" s="7"/>
       <c r="I20" s="7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>13</v>
@@ -1461,16 +1469,16 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E21" s="8" t="s">
         <v>1</v>
@@ -1485,15 +1493,15 @@
         <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="60">
       <c r="A22" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C22" s="8" t="s">
         <v>32</v>
@@ -1509,13 +1517,13 @@
       </c>
       <c r="G22" s="7"/>
       <c r="H22" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J22" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>35</v>
@@ -1523,10 +1531,10 @@
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="7" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
@@ -1545,21 +1553,21 @@
       </c>
       <c r="H23"/>
       <c r="J23" s="5" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="60">
       <c r="A24" s="7" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C24" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E24" s="8" t="s">
         <v>14</v>
@@ -1570,7 +1578,7 @@
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="J24" s="9" t="s">
         <v>13</v>
@@ -1579,16 +1587,16 @@
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C25" s="8" t="s">
         <v>32</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E25" s="8" t="s">
         <v>14</v>
@@ -1599,16 +1607,16 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
       <c r="I25" s="8" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J25" s="6" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="K25" s="7"/>
     </row>
     <row r="26" spans="1:11" ht="60">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>45</v>
@@ -1627,10 +1635,10 @@
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I26" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J26" s="4" t="s">
         <v>46</v>
@@ -1640,8 +1648,8 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
-      <c r="A27" t="s">
-        <v>86</v>
+      <c r="A27" s="11" t="s">
+        <v>84</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>48</v>
@@ -1663,15 +1671,15 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>79</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="60">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>50</v>
@@ -1680,7 +1688,7 @@
         <v>32</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E28" t="s">
         <v>17</v>
@@ -1692,15 +1700,15 @@
         <v>36</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="30">
       <c r="A29" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>51</v>
@@ -1722,15 +1730,15 @@
       </c>
       <c r="H29"/>
       <c r="I29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>61</v>
+        <v>150</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="60">
       <c r="A30" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B30" s="5" t="s">
         <v>52</v>
@@ -1739,7 +1747,7 @@
         <v>32</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E30" t="s">
         <v>14</v>
@@ -1749,15 +1757,15 @@
       </c>
       <c r="H30"/>
       <c r="I30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="J30" s="4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="31" spans="1:11">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B31" s="5" t="s">
         <v>53</v>
@@ -1766,7 +1774,7 @@
         <v>29</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E31" t="s">
         <v>14</v>
@@ -1776,7 +1784,7 @@
       </c>
       <c r="H31"/>
       <c r="I31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>13</v>
@@ -1784,7 +1792,7 @@
     </row>
     <row r="32" spans="1:11" ht="60">
       <c r="A32" s="7" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B32" s="5" t="s">
         <v>55</v>
@@ -1803,10 +1811,10 @@
       </c>
       <c r="G32" s="7"/>
       <c r="H32" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J32" s="4" t="s">
         <v>54</v>
@@ -1817,7 +1825,7 @@
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>47</v>
@@ -1839,15 +1847,15 @@
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="60">
       <c r="A34" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>52</v>
@@ -1856,7 +1864,7 @@
         <v>32</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E34" t="s">
         <v>14</v>
@@ -1866,15 +1874,15 @@
       </c>
       <c r="H34"/>
       <c r="I34" t="s">
+        <v>88</v>
+      </c>
+      <c r="J34" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="J34" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:11">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>58</v>
@@ -1898,7 +1906,7 @@
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" s="7" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B36" s="5" t="s">
         <v>59</v>
@@ -1920,7 +1928,7 @@
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>60</v>
@@ -1928,7 +1936,7 @@
     </row>
     <row r="37" spans="1:11">
       <c r="A37" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>56</v>
@@ -1949,7 +1957,7 @@
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B38" s="5" t="s">
         <v>56</v>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="170">
   <si>
     <t>API</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>Verify that user is able to update watch list from  private to public</t>
+  </si>
+  <si>
+    <t>?size=3</t>
   </si>
 </sst>
 </file>
@@ -942,8 +945,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L40"/>
+    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2024,7 +2027,7 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
   <si>
     <t>API</t>
   </si>
@@ -394,9 +394,6 @@
   </si>
   <si>
     <t>status=200||comments.userId=(SYS_USER2)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||type=MyDocumentComment||comments.data.id=(OPQA-385_1_comments.id)||comments.data.issuer.truid=(SYS_USER3)</t>
   </si>
   <si>
     <t>status=200||id=(OPQA-385_1_comments.id)</t>
@@ -945,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C32" workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
+      <selection activeCell="L40" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1194,7 +1191,7 @@
     </row>
     <row r="9" spans="1:12" ht="105">
       <c r="A9" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1225,10 +1222,10 @@
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1247,37 +1244,37 @@
       </c>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75">
       <c r="A11" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>12</v>
@@ -1286,29 +1283,29 @@
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>66</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1317,10 +1314,10 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1339,15 +1336,15 @@
       </c>
       <c r="H13"/>
       <c r="I13" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>100</v>
@@ -1356,19 +1353,19 @@
         <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I14" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>12</v>
@@ -1425,7 +1422,7 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="8" t="s">
@@ -1493,7 +1490,7 @@
         <v>67</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K18" s="8"/>
     </row>
@@ -1517,14 +1514,14 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
         <v>84</v>
       </c>
       <c r="J19" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="60">
@@ -1551,7 +1548,7 @@
         <v>41</v>
       </c>
       <c r="I20" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J20" s="4" t="s">
         <v>85</v>
@@ -1705,7 +1702,7 @@
         <v>99</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="60">
@@ -1737,7 +1734,7 @@
     </row>
     <row r="27" spans="1:11" ht="75">
       <c r="A27" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B27" s="5" t="s">
         <v>101</v>
@@ -1746,19 +1743,19 @@
         <v>17</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="H27" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I27" t="s">
         <v>148</v>
-      </c>
-      <c r="I27" t="s">
-        <v>149</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>12</v>
@@ -1788,7 +1785,7 @@
         <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J28" s="9" t="s">
         <v>124</v>
@@ -1824,7 +1821,7 @@
         <v>103</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30">
@@ -1854,7 +1851,7 @@
         <v>103</v>
       </c>
       <c r="J30" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="60">
@@ -1944,7 +1941,7 @@
         <v>119</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="60">
@@ -2027,14 +2024,14 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
         <v>123</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>125</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="60">
@@ -2048,7 +2045,7 @@
         <v>38</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E37" t="s">
         <v>50</v>
@@ -2061,15 +2058,15 @@
         <v>123</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="38" spans="1:11">
       <c r="A38" t="s">
+        <v>126</v>
+      </c>
+      <c r="B38" s="5" t="s">
         <v>127</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>128</v>
       </c>
       <c r="C38" t="s">
         <v>54</v>
@@ -2082,15 +2079,15 @@
       </c>
       <c r="H38"/>
       <c r="J38" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="39" spans="1:11">
       <c r="A39" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -2103,21 +2100,21 @@
       </c>
       <c r="H39"/>
       <c r="J39" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B40" s="5" t="s">
         <v>139</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>140</v>
       </c>
       <c r="C40" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>50</v>
@@ -2131,7 +2128,7 @@
         <v>67</v>
       </c>
       <c r="J40" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K40" s="8"/>
     </row>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -942,8 +942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
-      <selection activeCell="L40" sqref="L2:L40"/>
+    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1514,7 +1514,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>168</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
@@ -1695,7 +1695,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
@@ -1934,7 +1934,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="171">
   <si>
     <t>API</t>
   </si>
@@ -542,6 +542,12 @@
   </si>
   <si>
     <t>?size=3</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
   </si>
 </sst>
 </file>
@@ -942,7 +948,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H37" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
@@ -1514,7 +1520,7 @@
         <v>45</v>
       </c>
       <c r="G19" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
@@ -1695,7 +1701,7 @@
         <v>45</v>
       </c>
       <c r="G25" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
@@ -1916,10 +1922,10 @@
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>169</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>98</v>
+        <v>170</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -1934,7 +1940,7 @@
         <v>45</v>
       </c>
       <c r="G33" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -948,8 +948,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L40"/>
+    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
+      <selection activeCell="L40" sqref="L2:L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1131,7 +1131,7 @@
         <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
@@ -1185,7 +1185,7 @@
         <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
@@ -1246,7 +1246,7 @@
         <v>45</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
@@ -1338,7 +1338,7 @@
         <v>45</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H13"/>
       <c r="I13" s="5" t="s">

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="177">
   <si>
     <t>API</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>Verify that user receives a notification if someone likes his comment on a post</t>
+  </si>
+  <si>
+    <t>OPQA-1395</t>
+  </si>
+  <si>
+    <t>OPQA-207_1</t>
+  </si>
+  <si>
+    <t>Verify that all users receive notification when other user published a post .</t>
+  </si>
+  <si>
+    <t>Verify that user should receive notification when other user published a comment on an article.</t>
+  </si>
+  <si>
+    <t>X-1P-User=5cb7317e-6856-4c2a-bb0e-5302eeec03f1</t>
+  </si>
+  <si>
+    <t>OPQA-1397</t>
   </si>
 </sst>
 </file>
@@ -946,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H35" workbookViewId="0">
-      <selection activeCell="L40" sqref="L2:L40"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -959,7 +977,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="87.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="52.85546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="61.85546875" style="5" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1377,7 +1395,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="60">
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" s="8" t="s">
         <v>67</v>
       </c>
@@ -1438,40 +1456,39 @@
         <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="60">
+    <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>76</v>
+        <v>171</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>38</v>
+        <v>173</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G17" s="8"/>
-      <c r="H17" s="11" t="s">
-        <v>77</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+      <c r="G17" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17"/>
       <c r="I17" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J17" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="K17" s="8"/>
-    </row>
-    <row r="18" spans="1:11" ht="60">
+      <c r="J17" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="8" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>78</v>
@@ -1485,8 +1502,8 @@
       <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="9" t="s">
-        <v>66</v>
+      <c r="F18" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="11" t="s">
@@ -1496,109 +1513,110 @@
         <v>67</v>
       </c>
       <c r="J18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="K18" s="8"/>
+    </row>
+    <row r="19" spans="1:11" ht="30">
+      <c r="A19" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="K18" s="8"/>
-    </row>
-    <row r="19" spans="1:11" ht="30">
-      <c r="A19" s="5" t="s">
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B20" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C20" t="s">
         <v>30</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D20" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E20" t="s">
         <v>25</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F20" t="s">
         <v>45</v>
       </c>
-      <c r="G19" t="s">
+      <c r="G20" t="s">
         <v>33</v>
       </c>
-      <c r="H19"/>
-      <c r="I19" t="s">
+      <c r="H20"/>
+      <c r="I20" t="s">
         <v>84</v>
       </c>
-      <c r="J19" s="5" t="s">
+      <c r="J20" s="5" t="s">
         <v>136</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="60">
-      <c r="A20" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="C20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I20" t="s">
-        <v>150</v>
-      </c>
-      <c r="J20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="K20" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" t="s">
-        <v>46</v>
-      </c>
-      <c r="H21"/>
+        <v>39</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>90</v>
+        <v>150</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="K21" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="8" t="s">
-        <v>87</v>
+        <v>43</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
@@ -1610,7 +1628,7 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -1620,312 +1638,312 @@
         <v>37</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60">
-      <c r="A23" t="s">
-        <v>91</v>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="30">
+      <c r="A23" s="8" t="s">
+        <v>87</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E23" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>32</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23"/>
       <c r="I23" t="s">
         <v>37</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="60">
-      <c r="A24" t="s">
-        <v>95</v>
+      <c r="J23" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="30">
+      <c r="A24" s="12" t="s">
+        <v>172</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>92</v>
+        <v>174</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>93</v>
+        <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>13</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H24" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>175</v>
+      </c>
+      <c r="G24" t="s">
+        <v>33</v>
+      </c>
+      <c r="H24"/>
       <c r="I24" t="s">
         <v>37</v>
       </c>
-      <c r="J24" s="4" t="s">
-        <v>96</v>
+      <c r="J24" s="5" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>45</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25"/>
+        <v>13</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I25" t="s">
-        <v>99</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="60">
-      <c r="A26" s="8" t="s">
-        <v>47</v>
+        <v>37</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="30">
+      <c r="A26" t="s">
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="E26" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H26"/>
+        <v>66</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="I26" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="75">
-      <c r="A27" s="5" t="s">
-        <v>151</v>
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="30">
+      <c r="A27" t="s">
+        <v>97</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C27" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
       </c>
       <c r="F27" t="s">
-        <v>130</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>147</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27"/>
       <c r="I27" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="60">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="C28" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>13</v>
+        <v>49</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G28" s="8"/>
-      <c r="H28" s="9" t="s">
-        <v>105</v>
-      </c>
+      <c r="H28"/>
       <c r="I28" t="s">
-        <v>152</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>124</v>
-      </c>
-      <c r="K28" s="10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="8" t="s">
-        <v>109</v>
+        <v>37</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75">
+      <c r="A29" s="5" t="s">
+        <v>151</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="C29" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" t="s">
-        <v>25</v>
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" t="s">
-        <v>46</v>
-      </c>
-      <c r="H29"/>
-      <c r="I29" s="8" t="s">
-        <v>103</v>
+        <v>130</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="I29" t="s">
+        <v>148</v>
       </c>
       <c r="J29" s="5" t="s">
-        <v>133</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="C30" t="s">
+        <v>104</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30" t="s">
+        <v>152</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="30">
+      <c r="A31" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B31" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D31" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>25</v>
       </c>
-      <c r="F30" t="s">
-        <v>32</v>
-      </c>
-      <c r="G30" t="s">
+      <c r="F31" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
         <v>46</v>
       </c>
-      <c r="H30"/>
-      <c r="I30" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="60">
-      <c r="A31" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
-        <v>77</v>
-      </c>
+      <c r="H31"/>
       <c r="I31" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J31" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="K31" s="8"/>
-    </row>
-    <row r="32" spans="1:11" ht="60">
+      <c r="J31" s="5" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>38</v>
+        <v>112</v>
+      </c>
+      <c r="C32" t="s">
+        <v>30</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>114</v>
+        <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>13</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F32" t="s">
+        <v>32</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32"/>
       <c r="I32" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J32" s="9" t="s">
-        <v>118</v>
+      <c r="J32" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
-      <c r="A33" t="s">
-        <v>169</v>
+      <c r="A33" s="8" t="s">
+        <v>176</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>170</v>
+        <v>112</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -1937,85 +1955,85 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>175</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="H33"/>
-      <c r="I33" t="s">
-        <v>119</v>
+      <c r="I33" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="60">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
+        <v>116</v>
+      </c>
+      <c r="C34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="E34" t="s">
-        <v>50</v>
+        <v>114</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H34"/>
+        <v>40</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9" t="s">
+        <v>77</v>
+      </c>
       <c r="I34" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" ht="60">
+      <c r="J34" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K34" s="8"/>
+    </row>
+    <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E35" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="I35" t="s">
-        <v>67</v>
+      <c r="H35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" s="8" t="s">
+        <v>103</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="K35" s="10" t="s">
-        <v>42</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
-      <c r="A36" s="5" t="s">
-        <v>107</v>
+      <c r="A36" t="s">
+        <v>169</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>108</v>
+        <v>170</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2030,17 +2048,17 @@
         <v>45</v>
       </c>
       <c r="G36" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="60">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
         <v>121</v>
       </c>
@@ -2051,92 +2069,182 @@
         <v>38</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="E37" t="s">
         <v>50</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>66</v>
+        <v>14</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="30">
+      <c r="A38" s="8" t="s">
         <v>123</v>
       </c>
-      <c r="J37" s="4" t="s">
+      <c r="B38" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G38" s="8"/>
+      <c r="H38" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30">
+      <c r="A39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>25</v>
+      </c>
+      <c r="F39" t="s">
+        <v>45</v>
+      </c>
+      <c r="G39" t="s">
+        <v>168</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>123</v>
+      </c>
+      <c r="J39" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" ht="30">
+      <c r="A40" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="B40" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J40" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="38" spans="1:11">
-      <c r="A38" t="s">
+    <row r="41" spans="1:11">
+      <c r="A41" t="s">
         <v>126</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C38" t="s">
+      <c r="C41" t="s">
         <v>54</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E41" t="s">
         <v>50</v>
       </c>
-      <c r="H38"/>
-      <c r="J38" s="5" t="s">
+      <c r="H41"/>
+      <c r="J41" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="39" spans="1:11">
-      <c r="A39" t="s">
+    <row r="42" spans="1:11">
+      <c r="A42" t="s">
         <v>129</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B42" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C42" t="s">
         <v>54</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D42" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E42" t="s">
         <v>50</v>
       </c>
-      <c r="H39"/>
-      <c r="J39" s="5" t="s">
+      <c r="H42"/>
+      <c r="J42" s="5" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30">
-      <c r="A40" s="12" t="s">
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B43" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C43" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="8" t="s">
+      <c r="D43" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="E40" s="10" t="s">
+      <c r="E43" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="F43" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G40" s="8"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="8" t="s">
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="J40" s="9" t="s">
+      <c r="J43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="K40" s="8"/>
+      <c r="K43" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="174">
   <si>
     <t>API</t>
   </si>
@@ -159,9 +159,6 @@
     <t>X-1P-User=(SYS_USER2)</t>
   </si>
   <si>
-    <t>?size=1</t>
-  </si>
-  <si>
     <t>OPQA-286</t>
   </si>
   <si>
@@ -445,9 +442,6 @@
   </si>
   <si>
     <t>status=200||userId=(SYS_USER2)||id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>?size=2</t>
   </si>
   <si>
     <t>OPQA-312</t>
@@ -539,9 +533,6 @@
   </si>
   <si>
     <t>Verify that user is able to update watch list from  private to public</t>
-  </si>
-  <si>
-    <t>?size=3</t>
   </si>
   <si>
     <t>OPQA-218</t>
@@ -966,8 +957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L43"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1106,16 +1097,16 @@
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="C5" t="s">
         <v>53</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" s="6" t="s">
         <v>54</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>55</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>13</v>
@@ -1125,16 +1116,16 @@
       <c r="H5" s="4"/>
       <c r="I5" s="1"/>
       <c r="J5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>57</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>58</v>
       </c>
       <c r="C6" t="s">
         <v>30</v>
@@ -1153,24 +1144,24 @@
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>59</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>61</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>62</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
@@ -1179,16 +1170,16 @@
       <c r="G7" s="1"/>
       <c r="H7" s="4"/>
       <c r="J7" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:12" ht="30">
       <c r="A8" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C8" t="s">
         <v>30</v>
@@ -1207,15 +1198,15 @@
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9" spans="1:12" ht="105">
       <c r="A9" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>16</v>
@@ -1230,7 +1221,7 @@
         <v>13</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
@@ -1246,10 +1237,10 @@
     </row>
     <row r="10" spans="1:12" ht="30">
       <c r="A10" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C10" t="s">
         <v>30</v>
@@ -1268,37 +1259,37 @@
       </c>
       <c r="H10"/>
       <c r="I10" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="75">
       <c r="A11" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>164</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G11" s="5"/>
       <c r="H11" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>12</v>
@@ -1307,29 +1298,29 @@
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>167</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1338,10 +1329,10 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C13" t="s">
         <v>30</v>
@@ -1360,36 +1351,36 @@
       </c>
       <c r="H13"/>
       <c r="I13" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="75">
       <c r="A14" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C14" t="s">
         <v>17</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="I14" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>12</v>
@@ -1397,16 +1388,16 @@
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="A15" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="5" t="s">
         <v>67</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>68</v>
       </c>
       <c r="C15" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E15" s="10" t="s">
         <v>13</v>
@@ -1416,22 +1407,22 @@
       </c>
       <c r="G15" s="8"/>
       <c r="H15" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I15" s="8"/>
       <c r="J15" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K15" s="10" t="s">
         <v>71</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>74</v>
       </c>
       <c r="C16" t="s">
         <v>30</v>
@@ -1446,22 +1437,22 @@
         <v>32</v>
       </c>
       <c r="G16" t="s">
-        <v>142</v>
+        <v>33</v>
       </c>
       <c r="H16"/>
       <c r="I16" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J16" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1473,31 +1464,31 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="30">
       <c r="A18" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C18" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -1507,53 +1498,53 @@
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I18" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="K18" s="8"/>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B20" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="C20" t="s">
         <v>30</v>
@@ -1572,10 +1563,10 @@
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="J20" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="30">
@@ -1583,7 +1574,7 @@
         <v>37</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C21" t="s">
         <v>38</v>
@@ -1602,10 +1593,10 @@
         <v>41</v>
       </c>
       <c r="I21" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="J21" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="K21" s="8" t="s">
         <v>42</v>
@@ -1628,25 +1619,25 @@
         <v>25</v>
       </c>
       <c r="F22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
         <v>37</v>
       </c>
       <c r="J22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1661,22 +1652,22 @@
         <v>32</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="12" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1688,7 +1679,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -1698,21 +1689,21 @@
         <v>37</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
+        <v>90</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1721,50 +1712,50 @@
         <v>40</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
+        <v>96</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>98</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1783,27 +1774,27 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>47</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>48</v>
       </c>
       <c r="C28" t="s">
         <v>38</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E28" t="s">
         <v>49</v>
-      </c>
-      <c r="E28" t="s">
-        <v>50</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
@@ -1813,33 +1804,33 @@
         <v>37</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="75">
       <c r="A29" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="I29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1847,10 +1838,10 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>103</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>104</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>38</v>
@@ -1866,13 +1857,13 @@
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>42</v>
@@ -1880,10 +1871,10 @@
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -1895,25 +1886,25 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>111</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>112</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1928,22 +1919,22 @@
         <v>32</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="8" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -1955,31 +1946,31 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H33"/>
       <c r="I33" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -1989,51 +1980,51 @@
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2052,45 +2043,45 @@
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C37" t="s">
         <v>38</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F37" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30">
       <c r="A38" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C38" s="10" t="s">
         <v>38</v>
@@ -2102,17 +2093,17 @@
         <v>13</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I38" t="s">
+        <v>66</v>
+      </c>
+      <c r="J38" s="9" t="s">
         <v>105</v>
-      </c>
-      <c r="I38" t="s">
-        <v>67</v>
-      </c>
-      <c r="J38" s="9" t="s">
-        <v>106</v>
       </c>
       <c r="K38" s="10" t="s">
         <v>42</v>
@@ -2120,10 +2111,10 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B39" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C39" t="s">
         <v>30</v>
@@ -2138,11 +2129,11 @@
         <v>45</v>
       </c>
       <c r="G39" t="s">
-        <v>168</v>
+        <v>33</v>
       </c>
       <c r="H39"/>
       <c r="I39" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>12</v>
@@ -2150,88 +2141,88 @@
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>38</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E40" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H40"/>
       <c r="I40" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J40" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="1:11">
       <c r="A41" t="s">
+        <v>125</v>
+      </c>
+      <c r="B41" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="B41" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="C41" t="s">
+        <v>53</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>55</v>
-      </c>
       <c r="E41" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H41"/>
       <c r="J41" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="42" spans="1:11">
       <c r="A42" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E42" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H42"/>
       <c r="J42" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>137</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>138</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>139</v>
       </c>
       <c r="C43" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F43" s="9" t="s">
         <v>45</v>
@@ -2239,10 +2230,10 @@
       <c r="G43" s="8"/>
       <c r="H43" s="8"/>
       <c r="I43" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J43" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="K43" s="8"/>
     </row>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
   <si>
     <t>API</t>
   </si>
@@ -544,19 +544,86 @@
     <t>OPQA-1395</t>
   </si>
   <si>
-    <t>OPQA-207_1</t>
-  </si>
-  <si>
     <t>Verify that all users receive notification when other user published a post .</t>
   </si>
   <si>
     <t>Verify that user should receive notification when other user published a comment on an article.</t>
   </si>
   <si>
-    <t>X-1P-User=5cb7317e-6856-4c2a-bb0e-5302eeec03f1</t>
-  </si>
-  <si>
     <t>OPQA-1397</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER4)</t>
+  </si>
+  <si>
+    <t>OPQA-898</t>
+  </si>
+  <si>
+    <t>Verify that to get patent id  for adding document in to users watch list</t>
+  </si>
+  <si>
+    <t>/patents/search</t>
+  </si>
+  <si>
+    <t>?query=biotechnology&amp;fields=sortdate&amp;sort=sortdate:desc&amp;size=1</t>
+  </si>
+  <si>
+    <t>Verify that user able to add patent in to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>/containers/(OPQA-312_containerId)/items/patents::(OPQA-898_hits.hits._id)?itemType=patents</t>
+  </si>
+  <si>
+    <t>{
+"containerId":"(OPQA-312_containerId)"
+"itemId":"patents::(OPQA-898_hits.hits._id)"
+"itemType":"patents"
+}</t>
+  </si>
+  <si>
+    <t>OPQA-898||OPQA-312</t>
+  </si>
+  <si>
+    <t>OPQA-310_2</t>
+  </si>
+  <si>
+    <t>Verify that user2 create comment in user3 watching patent</t>
+  </si>
+  <si>
+    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on a patent contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on a patent</t>
+  </si>
+  <si>
+    <t>Verify that user should receive notification when other user published a comment on a patent.</t>
+  </si>
+  <si>
+    <t>OPQA-1420</t>
+  </si>
+  <si>
+    <t>OPQA-1421</t>
+  </si>
+  <si>
+    <t>OPQA-286_2</t>
+  </si>
+  <si>
+    <t>OPQA-1431</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-1431_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-1431_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-1432</t>
+  </si>
+  <si>
+    <t>OPQA-1433</t>
   </si>
 </sst>
 </file>
@@ -632,7 +699,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -659,7 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -955,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L43"/>
+  <dimension ref="A1:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1096,220 +1162,216 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
-      <c r="A5" t="s">
+      <c r="A5" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>175</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="H5"/>
+      <c r="J5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="5" t="s">
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K5" s="1"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6" t="s">
-        <v>56</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6"/>
-      <c r="I6" t="s">
-        <v>51</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" t="s">
+        <v>30</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7"/>
+      <c r="I7" t="s">
+        <v>51</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B8" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>53</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
-      <c r="J7" s="5" t="s">
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="4"/>
+      <c r="J8" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="30">
-      <c r="A8" s="8" t="s">
+      <c r="K8" s="1"/>
+    </row>
+    <row r="9" spans="1:12" ht="30">
+      <c r="A9" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B9" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D9" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" t="s">
         <v>25</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" t="s">
         <v>32</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G9" t="s">
         <v>33</v>
       </c>
-      <c r="H8"/>
-      <c r="I8" t="s">
+      <c r="H9"/>
+      <c r="I9" t="s">
         <v>59</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="J9" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="105">
-      <c r="A9" s="5" t="s">
+    <row r="10" spans="1:12" ht="105">
+      <c r="A10" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="5" t="s">
+      <c r="F10" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="G9" s="5"/>
-      <c r="H9" s="4" t="s">
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="1"/>
-      <c r="J9" s="5" t="s">
+      <c r="I10" s="1"/>
+      <c r="J10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="K10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="30">
-      <c r="A10" s="5" t="s">
+    <row r="11" spans="1:12" ht="30">
+      <c r="A11" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B11" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>45</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G11" t="s">
         <v>33</v>
       </c>
-      <c r="H10"/>
-      <c r="I10" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75">
-      <c r="A11" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="5"/>
-      <c r="H11" s="4" t="s">
-        <v>153</v>
-      </c>
+      <c r="H11"/>
       <c r="I11" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1"/>
+        <v>151</v>
+      </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="8" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>154</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1317,7 +1379,7 @@
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>141</v>
@@ -1327,132 +1389,133 @@
       </c>
       <c r="K12" s="1"/>
     </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>158</v>
+    <row r="13" spans="1:12" ht="75">
+      <c r="A13" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>165</v>
       </c>
       <c r="C13" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E13" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" t="s">
-        <v>45</v>
-      </c>
-      <c r="G13" t="s">
-        <v>33</v>
-      </c>
-      <c r="H13"/>
+        <v>156</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G13" s="5"/>
+      <c r="H13" s="4" t="s">
+        <v>157</v>
+      </c>
       <c r="I13" s="5" t="s">
         <v>141</v>
       </c>
       <c r="J13" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K13" s="1"/>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>45</v>
+      </c>
+      <c r="G14" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14"/>
+      <c r="I14" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="75">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:12" ht="75">
+      <c r="A15" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B15" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C15" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="D15" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F15" t="s">
         <v>129</v>
       </c>
-      <c r="H14" s="5" t="s">
+      <c r="H15" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I15" t="s">
         <v>147</v>
       </c>
-      <c r="J14" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="I15" s="8"/>
-      <c r="J15" s="9" t="s">
-        <v>70</v>
-      </c>
-      <c r="K15" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="30">
       <c r="A16" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="I16" s="8"/>
+      <c r="J16" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="30">
+      <c r="A17" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B17" s="5" t="s">
         <v>73</v>
-      </c>
-      <c r="C16" t="s">
-        <v>30</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E16" t="s">
-        <v>25</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16"/>
-      <c r="I16" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="J16" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>170</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1464,7 +1527,7 @@
         <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G17" t="s">
         <v>33</v>
@@ -1477,40 +1540,39 @@
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>75</v>
+        <v>168</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>38</v>
+        <v>169</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G18" s="8"/>
-      <c r="H18" s="11" t="s">
-        <v>76</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>85</v>
+      </c>
+      <c r="G18" t="s">
+        <v>33</v>
+      </c>
+      <c r="H18"/>
       <c r="I18" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="K18" s="8"/>
+      <c r="J18" s="5" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>77</v>
@@ -1524,8 +1586,8 @@
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>65</v>
+      <c r="F19" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
@@ -1535,109 +1597,110 @@
         <v>66</v>
       </c>
       <c r="J19" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K19" s="8"/>
+    </row>
+    <row r="20" spans="1:11" ht="30">
+      <c r="A20" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J20" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="5" t="s">
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="30">
+      <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B21" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C21" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D21" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E21" t="s">
         <v>25</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F21" t="s">
         <v>45</v>
       </c>
-      <c r="G20" t="s">
+      <c r="G21" t="s">
         <v>33</v>
       </c>
-      <c r="H20"/>
-      <c r="I20" t="s">
+      <c r="H21"/>
+      <c r="I21" t="s">
         <v>83</v>
       </c>
-      <c r="J20" s="5" t="s">
+      <c r="J21" s="5" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" ht="30">
-      <c r="A21" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C21" t="s">
-        <v>38</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="I21" t="s">
-        <v>148</v>
-      </c>
-      <c r="J21" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>44</v>
+        <v>101</v>
       </c>
       <c r="C22" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" t="s">
-        <v>25</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s">
-        <v>33</v>
-      </c>
-      <c r="H22"/>
+        <v>39</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="8"/>
+      <c r="H22" s="4" t="s">
+        <v>41</v>
+      </c>
       <c r="I22" t="s">
-        <v>37</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>89</v>
+        <v>148</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K22" s="8" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
-        <v>86</v>
+        <v>43</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>87</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>30</v>
@@ -1649,7 +1712,7 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
@@ -1659,15 +1722,15 @@
         <v>37</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="12" t="s">
-        <v>169</v>
+      <c r="A24" s="8" t="s">
+        <v>86</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>171</v>
+        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1679,7 +1742,7 @@
         <v>25</v>
       </c>
       <c r="F24" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="G24" t="s">
         <v>33</v>
@@ -1693,37 +1756,38 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
-      <c r="A25" t="s">
-        <v>90</v>
+      <c r="A25" s="8" t="s">
+        <v>187</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>91</v>
+        <v>170</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>76</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>172</v>
+      </c>
+      <c r="G25" t="s">
+        <v>33</v>
+      </c>
+      <c r="H25"/>
       <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="4" t="s">
-        <v>93</v>
+      <c r="J25" s="5" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>91</v>
@@ -1738,7 +1802,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>76</v>
@@ -1747,164 +1811,163 @@
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
+      <c r="A28" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B28" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D28" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>25</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F28" t="s">
         <v>45</v>
       </c>
-      <c r="G27" t="s">
+      <c r="G28" t="s">
         <v>33</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>98</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30">
-      <c r="A28" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C28" t="s">
-        <v>38</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="30">
+      <c r="A29" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H29"/>
+      <c r="I29" t="s">
         <v>37</v>
       </c>
-      <c r="J28" s="4" t="s">
+      <c r="J29" s="4" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="75">
-      <c r="A29" s="5" t="s">
+    <row r="30" spans="1:11" ht="75">
+      <c r="A30" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B30" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C30" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="7" t="s">
+      <c r="D30" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F30" t="s">
         <v>129</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H30" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="I29" t="s">
+      <c r="I30" t="s">
         <v>146</v>
       </c>
-      <c r="J29" s="5" t="s">
+      <c r="J30" s="5" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" t="s">
-        <v>150</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="C31" t="s">
-        <v>30</v>
+        <v>103</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E31" t="s">
-        <v>25</v>
-      </c>
-      <c r="F31" t="s">
-        <v>85</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>132</v>
+        <v>39</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" s="8"/>
+      <c r="H31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="I31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J31" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1916,7 +1979,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -1926,12 +1989,12 @@
         <v>102</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="8" t="s">
-        <v>173</v>
+        <v>110</v>
       </c>
       <c r="B33" s="5" t="s">
         <v>111</v>
@@ -1946,7 +2009,7 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>172</v>
+        <v>32</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
@@ -1961,38 +2024,37 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>112</v>
+        <v>171</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>38</v>
+        <v>111</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9" t="s">
-        <v>76</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+      <c r="F34" t="s">
+        <v>172</v>
+      </c>
+      <c r="G34" t="s">
+        <v>33</v>
+      </c>
+      <c r="H34"/>
       <c r="I34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K34" s="8"/>
+      <c r="J34" s="5" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B35" s="5" t="s">
         <v>115</v>
@@ -2003,239 +2065,449 @@
       <c r="D35" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E35" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="8"/>
+      <c r="H35" s="9" t="s">
         <v>76</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>102</v>
       </c>
       <c r="J35" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35" s="8"/>
+    </row>
+    <row r="36" spans="1:11" ht="30">
+      <c r="A36" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="E36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H36" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J36" s="9" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="30">
-      <c r="A36" t="s">
+    <row r="37" spans="1:11" ht="30">
+      <c r="A37" t="s">
         <v>166</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B37" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>30</v>
       </c>
-      <c r="D36" s="6" t="s">
+      <c r="D37" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E37" t="s">
         <v>25</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F37" t="s">
         <v>45</v>
       </c>
-      <c r="G36" t="s">
+      <c r="G37" t="s">
         <v>33</v>
       </c>
-      <c r="H36"/>
-      <c r="I36" t="s">
+      <c r="H37"/>
+      <c r="I37" t="s">
         <v>118</v>
       </c>
-      <c r="J36" s="5" t="s">
+      <c r="J37" s="5" t="s">
         <v>133</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C37" t="s">
-        <v>38</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="30">
       <c r="A38" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J38" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" ht="30">
+      <c r="A39" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B39" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="C38" s="10" t="s">
+      <c r="C39" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="6" t="s">
+      <c r="D39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E38" s="10" t="s">
+      <c r="E39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F39" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="G38" s="8"/>
-      <c r="H38" s="9" t="s">
+      <c r="G39" s="8"/>
+      <c r="H39" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="I38" t="s">
+      <c r="I39" t="s">
         <v>66</v>
       </c>
-      <c r="J38" s="9" t="s">
+      <c r="J39" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="K38" s="10" t="s">
+      <c r="K39" s="10" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30">
-      <c r="A39" s="5" t="s">
+    <row r="40" spans="1:11" ht="30">
+      <c r="A40" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B40" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C40" t="s">
         <v>30</v>
       </c>
-      <c r="D39" s="6" t="s">
+      <c r="D40" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E40" t="s">
         <v>25</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>45</v>
       </c>
-      <c r="G39" t="s">
+      <c r="G40" t="s">
         <v>33</v>
       </c>
-      <c r="H39"/>
-      <c r="I39" t="s">
+      <c r="H40"/>
+      <c r="I40" t="s">
         <v>122</v>
       </c>
-      <c r="J39" s="5" t="s">
+      <c r="J40" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="30">
-      <c r="A40" s="8" t="s">
+    <row r="41" spans="1:11" ht="30">
+      <c r="A41" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B41" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>38</v>
       </c>
-      <c r="D40" s="6" t="s">
+      <c r="D41" s="6" t="s">
         <v>136</v>
-      </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="J40" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11">
-      <c r="A41" t="s">
-        <v>125</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" t="s">
-        <v>53</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>54</v>
       </c>
       <c r="E41" t="s">
         <v>49</v>
       </c>
+      <c r="F41" s="9" t="s">
+        <v>65</v>
+      </c>
       <c r="H41"/>
-      <c r="J41" s="5" t="s">
+      <c r="I41" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="75">
+      <c r="A42" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C42" t="s">
+        <v>17</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F42" t="s">
+        <v>129</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="I42" t="s">
+        <v>180</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="30">
+      <c r="A43" s="8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B43" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G43" s="8"/>
+      <c r="H43" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="I43" t="s">
+        <v>181</v>
+      </c>
+      <c r="J43" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="30">
+      <c r="A44" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="B44" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" t="s">
+        <v>30</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>25</v>
+      </c>
+      <c r="F44" t="s">
+        <v>85</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>190</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="30">
+      <c r="A45" s="8" t="s">
+        <v>194</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F45" t="s">
+        <v>32</v>
+      </c>
+      <c r="G45" t="s">
+        <v>33</v>
+      </c>
+      <c r="H45"/>
+      <c r="I45" t="s">
+        <v>190</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="30">
+      <c r="A46" s="8" t="s">
+        <v>188</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="D46" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" t="s">
+        <v>25</v>
+      </c>
+      <c r="F46" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46"/>
+      <c r="I46" t="s">
+        <v>190</v>
+      </c>
+      <c r="J46" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="30">
+      <c r="A47" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" s="6" t="s">
+        <v>191</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H47"/>
+      <c r="I47" t="s">
+        <v>190</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" t="s">
+        <v>125</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C48" t="s">
+        <v>53</v>
+      </c>
+      <c r="D48" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+      <c r="H48"/>
+      <c r="J48" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="1:11">
-      <c r="A42" t="s">
+    <row r="49" spans="1:11">
+      <c r="A49" t="s">
         <v>128</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B49" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="C42" t="s">
+      <c r="C49" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="6" t="s">
+      <c r="D49" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E49" t="s">
         <v>49</v>
       </c>
-      <c r="H42"/>
-      <c r="J42" s="5" t="s">
+      <c r="H49"/>
+      <c r="J49" s="5" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
+    <row r="50" spans="1:11">
+      <c r="A50" t="s">
         <v>137</v>
       </c>
-      <c r="B43" s="5" t="s">
+      <c r="B50" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="C43" s="10" t="s">
+      <c r="C50" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="6" t="s">
+      <c r="D50" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="E43" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="8"/>
-      <c r="I43" s="8" t="s">
+      <c r="G50" s="8"/>
+      <c r="H50" s="8"/>
+      <c r="I50" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J43" s="9" t="s">
+      <c r="J50" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="K43" s="8"/>
+      <c r="K50" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="197">
   <si>
     <t>API</t>
   </si>
@@ -624,6 +624,12 @@
   </si>
   <si>
     <t>OPQA-1433</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
   </si>
 </sst>
 </file>
@@ -2348,7 +2354,7 @@
         <v>190</v>
       </c>
       <c r="J44" s="5" t="s">
-        <v>89</v>
+        <v>195</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="30">
@@ -2378,7 +2384,7 @@
         <v>190</v>
       </c>
       <c r="J45" s="5" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="30">
@@ -2408,7 +2414,7 @@
         <v>190</v>
       </c>
       <c r="J46" s="5" t="s">
-        <v>88</v>
+        <v>196</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="30">

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="191">
   <si>
     <t>API</t>
   </si>
@@ -336,9 +336,6 @@
     <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test"}</t>
   </si>
   <si>
-    <t>status=200||comments.userId=(SYS_USER3)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
-  </si>
-  <si>
     <t>OPQA-215</t>
   </si>
   <si>
@@ -387,15 +384,6 @@
     <t>status=200||id=(OPQA-385_comments.id)</t>
   </si>
   <si>
-    <t>OPQA-385_1</t>
-  </si>
-  <si>
-    <t>status=200||comments.userId=(SYS_USER2)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-385_1_comments.id)</t>
-  </si>
-  <si>
     <t>OPQA-461</t>
   </si>
   <si>
@@ -414,12 +402,6 @@
     <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=2||targetId=(OPQA-360_id)</t>
   </si>
   <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
     <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=Notification Test</t>
   </si>
   <si>
@@ -427,9 +409,6 @@
   </si>
   <si>
     <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||publication.id=(OPQA-360_id)||publication.title=Creating Post For API Notification Testing</t>
-  </si>
-  <si>
-    <t>/comments/comment/(OPQA-385_1_comments.id)</t>
   </si>
   <si>
     <t>OPQA-1076</t>
@@ -479,9 +458,6 @@
     <t>OPQA-310_1</t>
   </si>
   <si>
-    <t>OPQA-360||OPQA-310_1</t>
-  </si>
-  <si>
     <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||publication.id=(OPQA-312_containerId)||publication.action=CREATE_WATCHLIST</t>
   </si>
   <si>
@@ -547,12 +523,6 @@
     <t>Verify that all users receive notification when other user published a post .</t>
   </si>
   <si>
-    <t>Verify that user should receive notification when other user published a comment on an article.</t>
-  </si>
-  <si>
-    <t>OPQA-1397</t>
-  </si>
-  <si>
     <t>X-1P-User=(SYS_USER4)</t>
   </si>
   <si>
@@ -599,15 +569,6 @@
     <t>Verify that user receives a notification when someone he is following comments on a patent</t>
   </si>
   <si>
-    <t>Verify that user should receive notification when other user published a comment on a patent.</t>
-  </si>
-  <si>
-    <t>OPQA-1420</t>
-  </si>
-  <si>
-    <t>OPQA-1421</t>
-  </si>
-  <si>
     <t>OPQA-286_2</t>
   </si>
   <si>
@@ -630,6 +591,27 @@
   </si>
   <si>
     <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>OPQA-236||OPQA-310</t>
+  </si>
+  <si>
+    <t>OPQA-385||OPQA-310_1</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER4)||Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER4)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER4)||comments.data.text=Notification Test||publication.id=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER4)||comment.text=Notification Test||publication.id=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>OPQA-1431||OPQA-310_2</t>
   </si>
 </sst>
 </file>
@@ -705,7 +687,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -732,6 +714,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1027,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1043,7 +1026,7 @@
     <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="52.85546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="61.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="93.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1169,22 +1152,22 @@
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
@@ -1305,7 +1288,7 @@
     </row>
     <row r="10" spans="1:12" ht="105">
       <c r="A10" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1336,10 +1319,10 @@
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1358,37 +1341,37 @@
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1397,29 +1380,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1428,10 +1411,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1450,15 +1433,15 @@
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>99</v>
@@ -1467,19 +1450,19 @@
         <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="I15" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
@@ -1548,10 +1531,10 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1634,7 +1617,7 @@
         <v>66</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="K20" s="8"/>
     </row>
@@ -1665,7 +1648,7 @@
         <v>83</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
@@ -1692,7 +1675,7 @@
         <v>41</v>
       </c>
       <c r="I22" t="s">
-        <v>148</v>
+        <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
         <v>84</v>
@@ -1725,7 +1708,7 @@
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>37</v>
+        <v>184</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>89</v>
@@ -1762,38 +1745,37 @@
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
-      <c r="A25" s="8" t="s">
-        <v>187</v>
+      <c r="A25" t="s">
+        <v>90</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>170</v>
+        <v>91</v>
       </c>
       <c r="C25" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>31</v>
+        <v>92</v>
       </c>
       <c r="E25" t="s">
-        <v>25</v>
-      </c>
-      <c r="F25" t="s">
-        <v>172</v>
-      </c>
-      <c r="G25" t="s">
-        <v>33</v>
-      </c>
-      <c r="H25"/>
+        <v>13</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>76</v>
+      </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
-      <c r="J25" s="5" t="s">
-        <v>88</v>
+      <c r="J25" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B26" s="5" t="s">
         <v>91</v>
@@ -1808,7 +1790,7 @@
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="H26" s="5" t="s">
         <v>76</v>
@@ -1817,163 +1799,164 @@
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="C27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" t="s">
+        <v>33</v>
+      </c>
+      <c r="H27"/>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="30">
+      <c r="A28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C28" t="s">
         <v>38</v>
       </c>
-      <c r="D27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="E27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H27" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
-      </c>
-      <c r="J27" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
       <c r="D28" s="6" t="s">
-        <v>31</v>
+        <v>48</v>
       </c>
       <c r="E28" t="s">
-        <v>25</v>
-      </c>
-      <c r="F28" t="s">
-        <v>45</v>
-      </c>
-      <c r="G28" t="s">
-        <v>33</v>
+        <v>49</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>98</v>
-      </c>
-      <c r="J28" s="5" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="30">
-      <c r="A29" s="8" t="s">
-        <v>46</v>
+        <v>37</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="75">
+      <c r="A29" s="5" t="s">
+        <v>142</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="C29" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F29" t="s">
+        <v>125</v>
+      </c>
+      <c r="H29" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I29" t="s">
+        <v>139</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="30">
+      <c r="A30" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C30" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H29"/>
-      <c r="I29" t="s">
-        <v>37</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="75">
-      <c r="A30" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C30" t="s">
-        <v>17</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="E30" s="1" t="s">
+      <c r="D30" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F30" t="s">
-        <v>129</v>
-      </c>
-      <c r="H30" s="5" t="s">
-        <v>145</v>
+      <c r="F30" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="G30" s="8"/>
+      <c r="H30" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="I30" t="s">
-        <v>146</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>12</v>
+        <v>66</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>187</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="10" t="s">
-        <v>38</v>
+        <v>108</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" s="8"/>
-      <c r="H31" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="I31" t="s">
-        <v>150</v>
-      </c>
-      <c r="J31" s="9" t="s">
-        <v>123</v>
-      </c>
-      <c r="K31" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
+      </c>
+      <c r="E31" t="s">
+        <v>25</v>
+      </c>
+      <c r="F31" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" t="s">
+        <v>33</v>
+      </c>
+      <c r="H31"/>
+      <c r="I31" s="8" t="s">
+        <v>185</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1985,7 +1968,7 @@
         <v>25</v>
       </c>
       <c r="F32" t="s">
-        <v>85</v>
+        <v>32</v>
       </c>
       <c r="G32" t="s">
         <v>33</v>
@@ -1995,15 +1978,15 @@
         <v>102</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>132</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
-      <c r="A33" s="8" t="s">
-        <v>110</v>
+      <c r="A33" s="12" t="s">
+        <v>105</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -2015,205 +1998,204 @@
         <v>25</v>
       </c>
       <c r="F33" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="G33" t="s">
         <v>33</v>
       </c>
       <c r="H33"/>
-      <c r="I33" s="8" t="s">
+      <c r="I33" t="s">
         <v>102</v>
       </c>
       <c r="J33" s="5" t="s">
-        <v>131</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>171</v>
+        <v>111</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="C34" t="s">
-        <v>30</v>
+        <v>114</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E34" t="s">
-        <v>25</v>
-      </c>
-      <c r="F34" t="s">
-        <v>172</v>
-      </c>
-      <c r="G34" t="s">
-        <v>33</v>
-      </c>
-      <c r="H34"/>
+        <v>112</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="8"/>
+      <c r="H34" s="9" t="s">
+        <v>76</v>
+      </c>
       <c r="I34" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="J34" s="5" t="s">
-        <v>131</v>
-      </c>
+      <c r="J34" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E35" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G35" s="8"/>
-      <c r="H35" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="H35" s="5" t="s">
         <v>76</v>
       </c>
       <c r="I35" s="8" t="s">
         <v>102</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="K35" s="8"/>
+        <v>116</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="30">
-      <c r="A36" s="8" t="s">
-        <v>116</v>
+      <c r="A36" t="s">
+        <v>158</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="C36" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" t="s">
+        <v>25</v>
+      </c>
+      <c r="F36" t="s">
+        <v>162</v>
+      </c>
+      <c r="G36" t="s">
+        <v>33</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>117</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="30">
+      <c r="A37" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" t="s">
         <v>38</v>
       </c>
-      <c r="D36" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E36" t="s">
+      <c r="D37" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="J37" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="75">
+      <c r="A38" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="B38" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F36" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="I36" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J36" s="9" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30">
-      <c r="A37" t="s">
-        <v>166</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F37" t="s">
-        <v>45</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37" t="s">
-        <v>118</v>
-      </c>
-      <c r="J37" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="30">
-      <c r="A38" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" t="s">
-        <v>38</v>
-      </c>
-      <c r="D38" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H38"/>
-      <c r="I38" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="J38" s="4" t="s">
-        <v>121</v>
+      <c r="F38" t="s">
+        <v>125</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="I38" t="s">
+        <v>170</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="8" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="C39" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C39" t="s">
         <v>38</v>
       </c>
       <c r="D39" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E39" s="10" t="s">
+      <c r="E39" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="9" t="s">
-        <v>104</v>
+      <c r="H39" s="4" t="s">
+        <v>173</v>
       </c>
       <c r="I39" t="s">
-        <v>66</v>
-      </c>
-      <c r="J39" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="K39" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J39" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="K39" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
-      <c r="A40" s="5" t="s">
-        <v>106</v>
+      <c r="A40" s="8" t="s">
+        <v>180</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -2225,295 +2207,146 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>122</v>
+        <v>190</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>12</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>120</v>
+        <v>181</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C41" t="s">
+        <v>30</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" t="s">
+        <v>25</v>
+      </c>
+      <c r="F41" t="s">
+        <v>32</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>177</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="30">
+      <c r="A42" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B42" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C41" t="s">
+      <c r="C42" t="s">
         <v>38</v>
       </c>
-      <c r="D41" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E41" t="s">
+      <c r="D42" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="E42" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41" s="8" t="s">
+      <c r="F42" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42"/>
+      <c r="I42" t="s">
+        <v>177</v>
+      </c>
+      <c r="J42" s="4" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" t="s">
+        <v>121</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="J41" s="4" t="s">
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+      <c r="H43"/>
+      <c r="J43" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" ht="75">
-      <c r="A42" s="5" t="s">
-        <v>181</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" t="s">
-        <v>17</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="E42" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F42" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="I42" t="s">
-        <v>180</v>
-      </c>
-      <c r="J42" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="30">
-      <c r="A43" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C44" t="s">
+        <v>53</v>
+      </c>
+      <c r="D44" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+      <c r="H44"/>
+      <c r="J44" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" t="s">
+        <v>130</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C45" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" s="8"/>
-      <c r="H43" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="I43" t="s">
-        <v>181</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="K43" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="30">
-      <c r="A44" s="8" t="s">
-        <v>193</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>184</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F44" t="s">
-        <v>85</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44"/>
-      <c r="I44" t="s">
-        <v>190</v>
-      </c>
-      <c r="J44" s="5" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="30">
-      <c r="A45" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" t="s">
-        <v>30</v>
-      </c>
       <c r="D45" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" t="s">
-        <v>25</v>
-      </c>
-      <c r="F45" t="s">
-        <v>32</v>
-      </c>
-      <c r="G45" t="s">
-        <v>33</v>
-      </c>
-      <c r="H45"/>
-      <c r="I45" t="s">
-        <v>190</v>
-      </c>
-      <c r="J45" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="30">
-      <c r="A46" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="B46" s="5" t="s">
-        <v>186</v>
-      </c>
-      <c r="C46" t="s">
-        <v>30</v>
-      </c>
-      <c r="D46" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" t="s">
-        <v>25</v>
-      </c>
-      <c r="F46" t="s">
-        <v>172</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46"/>
-      <c r="I46" t="s">
-        <v>190</v>
-      </c>
-      <c r="J46" s="5" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="30">
-      <c r="A47" s="5" t="s">
-        <v>189</v>
-      </c>
-      <c r="B47" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C47" t="s">
-        <v>38</v>
-      </c>
-      <c r="D47" s="6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E47" t="s">
+        <v>132</v>
+      </c>
+      <c r="E45" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H47"/>
-      <c r="I47" t="s">
-        <v>190</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="A48" t="s">
-        <v>125</v>
-      </c>
-      <c r="B48" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C48" t="s">
-        <v>53</v>
-      </c>
-      <c r="D48" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="s">
-        <v>49</v>
-      </c>
-      <c r="H48"/>
-      <c r="J48" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11">
-      <c r="A49" t="s">
-        <v>128</v>
-      </c>
-      <c r="B49" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="C49" t="s">
-        <v>53</v>
-      </c>
-      <c r="D49" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>49</v>
-      </c>
-      <c r="H49"/>
-      <c r="J49" s="5" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11">
-      <c r="A50" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="C50" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D50" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="F50" s="9" t="s">
+      <c r="F45" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G50" s="8"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="8" t="s">
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="J50" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="K50" s="8"/>
+      <c r="J45" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="K45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -228,9 +228,6 @@
     <t>/posts/</t>
   </si>
   <si>
-    <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing"}</t>
-  </si>
-  <si>
     <t>status=200||userId=(SYS_USER2)||found=true</t>
   </si>
   <si>
@@ -612,6 +609,9 @@
   </si>
   <si>
     <t>OPQA-1431||OPQA-310_2</t>
+  </si>
+  <si>
+    <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing"}</t>
   </si>
 </sst>
 </file>
@@ -1012,7 +1012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="L2" sqref="L2:L45"/>
     </sheetView>
   </sheetViews>
@@ -1152,22 +1152,22 @@
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>163</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>164</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>23</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
@@ -1288,7 +1288,7 @@
     </row>
     <row r="10" spans="1:12" ht="105">
       <c r="A10" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
@@ -1319,10 +1319,10 @@
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
@@ -1341,37 +1341,37 @@
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C12" t="s">
         <v>17</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1380,29 +1380,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>65</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1411,10 +1411,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C14" t="s">
         <v>30</v>
@@ -1433,42 +1433,42 @@
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="75">
       <c r="A15" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C15" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="30">
+    <row r="16" spans="1:12" ht="150">
       <c r="A16" s="8" t="s">
         <v>66</v>
       </c>
@@ -1489,22 +1489,22 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9" t="s">
-        <v>69</v>
+        <v>190</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C17" t="s">
         <v>30</v>
@@ -1526,15 +1526,15 @@
         <v>66</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>160</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>161</v>
       </c>
       <c r="C18" t="s">
         <v>30</v>
@@ -1546,7 +1546,7 @@
         <v>25</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
         <v>33</v>
@@ -1556,21 +1556,21 @@
         <v>66</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
@@ -1580,28 +1580,28 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I19" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
@@ -1611,22 +1611,22 @@
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>66</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>82</v>
       </c>
       <c r="C21" t="s">
         <v>30</v>
@@ -1645,10 +1645,10 @@
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
@@ -1656,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C22" t="s">
         <v>38</v>
@@ -1678,7 +1678,7 @@
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K22" s="8" t="s">
         <v>42</v>
@@ -1701,25 +1701,25 @@
         <v>25</v>
       </c>
       <c r="F23" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G23" t="s">
         <v>33</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>86</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>87</v>
       </c>
       <c r="C24" t="s">
         <v>30</v>
@@ -1741,21 +1741,21 @@
         <v>37</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="C25" t="s">
         <v>38</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1764,27 +1764,27 @@
         <v>40</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I25" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
@@ -1793,21 +1793,21 @@
         <v>65</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I26" t="s">
         <v>37</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
+        <v>95</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>96</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>97</v>
       </c>
       <c r="C27" t="s">
         <v>30</v>
@@ -1826,10 +1826,10 @@
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
@@ -1861,28 +1861,28 @@
     </row>
     <row r="29" spans="1:11" ht="75">
       <c r="A29" s="5" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C29" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H29" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I29" t="s">
         <v>138</v>
-      </c>
-      <c r="I29" t="s">
-        <v>139</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1890,10 +1890,10 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>38</v>
@@ -1905,17 +1905,17 @@
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I30" t="s">
         <v>66</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K30" s="10" t="s">
         <v>42</v>
@@ -1923,10 +1923,10 @@
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>108</v>
       </c>
       <c r="C31" t="s">
         <v>30</v>
@@ -1938,25 +1938,25 @@
         <v>25</v>
       </c>
       <c r="F31" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G31" t="s">
         <v>33</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>109</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="C32" t="s">
         <v>30</v>
@@ -1975,18 +1975,18 @@
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>105</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>106</v>
       </c>
       <c r="C33" t="s">
         <v>30</v>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>12</v>
@@ -2013,16 +2013,16 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -2032,28 +2032,28 @@
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
@@ -2062,21 +2062,21 @@
         <v>65</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
+        <v>157</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>158</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>159</v>
       </c>
       <c r="C36" t="s">
         <v>30</v>
@@ -2088,22 +2088,22 @@
         <v>25</v>
       </c>
       <c r="F36" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G36" t="s">
         <v>33</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B37" s="5" t="s">
         <v>47</v>
@@ -2112,46 +2112,46 @@
         <v>38</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" t="s">
         <v>49</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="75">
       <c r="A38" s="5" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C38" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H38" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I38" t="s">
         <v>169</v>
-      </c>
-      <c r="I38" t="s">
-        <v>170</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>12</v>
@@ -2159,10 +2159,10 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="8" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
         <v>38</v>
@@ -2178,13 +2178,13 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="4" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I39" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="K39" s="8" t="s">
         <v>42</v>
@@ -2192,10 +2192,10 @@
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
         <v>30</v>
@@ -2207,25 +2207,25 @@
         <v>25</v>
       </c>
       <c r="F40" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G40" t="s">
         <v>33</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
         <v>30</v>
@@ -2244,15 +2244,15 @@
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B42" s="5" t="s">
         <v>47</v>
@@ -2261,7 +2261,7 @@
         <v>38</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E42" t="s">
         <v>49</v>
@@ -2271,18 +2271,18 @@
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>120</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>122</v>
       </c>
       <c r="C43" t="s">
         <v>53</v>
@@ -2295,15 +2295,15 @@
       </c>
       <c r="H43"/>
       <c r="J43" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C44" t="s">
         <v>53</v>
@@ -2316,21 +2316,21 @@
       </c>
       <c r="H44"/>
       <c r="J44" s="5" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>130</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>131</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>49</v>
@@ -2344,7 +2344,7 @@
         <v>66</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K45" s="8"/>
     </row>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -9,12 +9,15 @@
   <sheets>
     <sheet name="Notify" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Notify!$A$1:$L$45</definedName>
+  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="188">
   <si>
     <t>API</t>
   </si>
@@ -67,551 +70,543 @@
     <t>Verify that user able to create public watchlist</t>
   </si>
   <si>
-    <t>1PWATCHLISTRA</t>
-  </si>
-  <si>
-    <t>containerId</t>
-  </si>
-  <si>
-    <t>/containers/createWatchlist</t>
+    <t>Verify that to get document id for adding document in to users watch list</t>
+  </si>
+  <si>
+    <t>1PSEARCHV3</t>
+  </si>
+  <si>
+    <t>/wos/search</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>hits.hits._id</t>
+  </si>
+  <si>
+    <t>?query=bio&amp;size=1&amp;sort=sortdate:desc</t>
+  </si>
+  <si>
+    <t>OPQA-875</t>
+  </si>
+  <si>
+    <t>Verify that to get notification for user</t>
+  </si>
+  <si>
+    <t>1PNOTIFY</t>
+  </si>
+  <si>
+    <t>/notify/list</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>?size=10</t>
+  </si>
+  <si>
+    <t>OPQA-876</t>
+  </si>
+  <si>
+    <t>Verify that error status by doesn't passing header to  Notify API</t>
+  </si>
+  <si>
+    <t>status=500</t>
+  </si>
+  <si>
+    <t>OPQA-236</t>
+  </si>
+  <si>
+    <t>1PAUTHORING</t>
+  </si>
+  <si>
+    <t>/comments</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER1)||Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>comments.id</t>
+  </si>
+  <si>
+    <t>OPQA-208</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>OPQA-286</t>
+  </si>
+  <si>
+    <t>Verify that user able to delete comment</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-450</t>
+  </si>
+  <si>
+    <t>Verify that Start following a user and verify the follow relationship for notification test.</t>
+  </si>
+  <si>
+    <t>1PFOLLOW</t>
+  </si>
+  <si>
+    <t>/follow/user/(SYS_USER1)/following/(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>status=201||followRelationship=IS_FOLLOWER</t>
+  </si>
+  <si>
+    <t>OPQA-206</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when he is followed by someone</t>
+  </si>
+  <si>
+    <t>status=200||type=FOLLOW||issuer.truid=(SYS_USER1)</t>
+  </si>
+  <si>
+    <t>OPQA-450_1</t>
+  </si>
+  <si>
+    <t>Verify that start following a user for my follower get notification for FOAF.</t>
+  </si>
+  <si>
+    <t>/follow/user/(SYS_USER2)/following/(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>OPQA-213</t>
+  </si>
+  <si>
+    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
+  </si>
+  <si>
+    <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER3)||Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>OPQA-360</t>
+  </si>
+  <si>
+    <t>Verify that user is able to create a post and publish it.</t>
+  </si>
+  <si>
+    <t>/posts/</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER2)||found=true</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>OPQA-877</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user published a post</t>
+  </si>
+  <si>
+    <t>status=200||type=POST_CREATED||post.id=(OPQA-360_id)||issuer.truid=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>OPQA-342</t>
+  </si>
+  <si>
+    <t>{"appreciate":"UP"}</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to appreciate the post</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/posts/(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=1||targetId=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>OPQA-342_1</t>
+  </si>
+  <si>
+    <t>OPQA-1013</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
+  </si>
+  <si>
+    <t>OPQA-342||OPQA-342_1</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER2)</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>OPQA-207</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on an article</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>OPQA-284</t>
+  </si>
+  <si>
+    <t>Verify that user Appreciate comment for notification test</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/Comment/(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-284_1</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=2||targetId=(OPQA-236_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-209</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment an article</t>
+  </si>
+  <si>
+    <t>OPQA-284||OPQA-284_1</t>
+  </si>
+  <si>
+    <t>Verify that user able to add new article in to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>Verify that user able to add new post in to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>Verify that user2 create comment in user3 watching article</t>
+  </si>
+  <si>
+    <t>OPQA-385</t>
+  </si>
+  <si>
+    <t>Verify that user is able to add comments on the posts.</t>
+  </si>
+  <si>
+    <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>OPQA-215</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Verify that user able to recevies a notification when other user commented on his post </t>
+  </si>
+  <si>
+    <t>OPQA-217</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
+  </si>
+  <si>
+    <t>OPQA-216</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
+  </si>
+  <si>
+    <t>OPQA-364</t>
+  </si>
+  <si>
+    <t>/appreciation/appreciate/Comment/(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>Verify that the user is able to appreciate the Comments of post</t>
+  </si>
+  <si>
+    <t>OPQA-364_1</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=2||targetId=(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-364||OPQA-364_1</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-286_1</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-385_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-461</t>
+  </si>
+  <si>
+    <t>verify that user able to unfollow a following user</t>
+  </si>
+  <si>
+    <t>status=200||followRelationship=IS_NONE</t>
+  </si>
+  <si>
+    <t>OPQA-461_1</t>
+  </si>
+  <si>
+    <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=2||targetId=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=Notification Test</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-236_comments.id)||comment.text=Notification Test</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||publication.id=(OPQA-360_id)||publication.title=Creating Post For API Notification Testing</t>
+  </si>
+  <si>
+    <t>OPQA-1076</t>
+  </si>
+  <si>
+    <t>Verfiy that user is able to delete their post</t>
+  </si>
+  <si>
+    <t>/posts/post/(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||userId=(SYS_USER2)||id=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>OPQA-312</t>
+  </si>
+  <si>
+    <t>OPQA-360||OPQA-312</t>
+  </si>
+  <si>
+    <t>OPQA-874||OPQA-312</t>
+  </si>
+  <si>
+    <t>OPQA-310</t>
+  </si>
+  <si>
+    <t>OPQA-310_1</t>
+  </si>
+  <si>
+    <t>PUT</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public.</t>
+  </si>
+  <si>
+    <t>OPQA-1184</t>
+  </si>
+  <si>
+    <t>Verify that user is receiving notification when someone he is following created a public watch list. </t>
+  </si>
+  <si>
+    <t>OPQA-1183</t>
+  </si>
+  <si>
+    <t>OPQA-320</t>
+  </si>
+  <si>
+    <t>OPQA-330</t>
+  </si>
+  <si>
+    <t>Verify that user is able to update watch list from public to private</t>
+  </si>
+  <si>
+    <t>Verify that user is able to update watch list from  private to public</t>
+  </si>
+  <si>
+    <t>OPQA-218</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification if someone likes his comment on a post</t>
+  </si>
+  <si>
+    <t>OPQA-1395</t>
+  </si>
+  <si>
+    <t>Verify that all users receive notification when other user published a post .</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER4)</t>
+  </si>
+  <si>
+    <t>OPQA-898</t>
+  </si>
+  <si>
+    <t>Verify that to get patent id  for adding document in to users watch list</t>
+  </si>
+  <si>
+    <t>/patents/search</t>
+  </si>
+  <si>
+    <t>?query=biotechnology&amp;fields=sortdate&amp;sort=sortdate:desc&amp;size=1</t>
+  </si>
+  <si>
+    <t>Verify that user able to add patent in to his watchlist for notification test</t>
+  </si>
+  <si>
+    <t>OPQA-898||OPQA-312</t>
+  </si>
+  <si>
+    <t>OPQA-310_2</t>
+  </si>
+  <si>
+    <t>Verify that user2 create comment in user3 watching patent</t>
+  </si>
+  <si>
+    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.hits._id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone comments on a patent contained in his watchlist</t>
+  </si>
+  <si>
+    <t>Verify that user receives a notification when someone he is following comments on a patent</t>
+  </si>
+  <si>
+    <t>OPQA-286_2</t>
+  </si>
+  <si>
+    <t>OPQA-1431</t>
+  </si>
+  <si>
+    <t>/comments/comment/(OPQA-1431_comments.id)</t>
+  </si>
+  <si>
+    <t>status=200||id=(OPQA-1431_comments.id)</t>
+  </si>
+  <si>
+    <t>OPQA-1432</t>
+  </si>
+  <si>
+    <t>OPQA-1433</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
+  </si>
+  <si>
+    <t>OPQA-236||OPQA-310</t>
+  </si>
+  <si>
+    <t>OPQA-385||OPQA-310_1</t>
+  </si>
+  <si>
+    <t>X-1P-User=(SYS_USER4)||Content-Type=application/json</t>
+  </si>
+  <si>
+    <t>status=200||comments.userId=(SYS_USER4)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER4)||comments.data.text=Notification Test||publication.id=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER4)||comment.text=Notification Test||publication.id=(OPQA-360_id)</t>
+  </si>
+  <si>
+    <t>OPQA-1431||OPQA-310_2</t>
+  </si>
+  <si>
+    <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing"}</t>
+  </si>
+  <si>
+    <t>1PCONTAINER</t>
+  </si>
+  <si>
+    <t>/container/</t>
+  </si>
+  <si>
+    <t>status=200||type=watchlist||ispublic=true</t>
+  </si>
+  <si>
+    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||id=(OPQA-312_id)||publication.action=CREATE_WATCHLIST</t>
+  </si>
+  <si>
+    <t>id||name</t>
   </si>
   <si>
     <t>{
-"containerDesc": "Creating public watchList for Notification testing ",
-"containerName": "Public watchList for Notification testing",
-"containerStatus": "Public",
-"isPublic": true
+"name": "(OPQA-312_name)",
+"desc": "Public watchList for Notification testing",
+"ispublic": "false"
 }</t>
   </si>
   <si>
-    <t>status=200||containerType=watchlist||containerStatus=Public</t>
-  </si>
-  <si>
-    <t>Verify that to get document id for adding document in to users watch list</t>
-  </si>
-  <si>
-    <t>1PSEARCHV3</t>
-  </si>
-  <si>
-    <t>/wos/search</t>
-  </si>
-  <si>
-    <t>GET</t>
-  </si>
-  <si>
-    <t>hits.hits._id</t>
-  </si>
-  <si>
-    <t>?query=bio&amp;size=1&amp;sort=sortdate:desc</t>
-  </si>
-  <si>
-    <t>OPQA-875</t>
-  </si>
-  <si>
-    <t>Verify that to get notification for user</t>
-  </si>
-  <si>
-    <t>1PNOTIFY</t>
-  </si>
-  <si>
-    <t>/notify/list</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER1)</t>
-  </si>
-  <si>
-    <t>?size=10</t>
-  </si>
-  <si>
-    <t>OPQA-876</t>
-  </si>
-  <si>
-    <t>Verify that error status by doesn't passing header to  Notify API</t>
-  </si>
-  <si>
-    <t>status=500</t>
-  </si>
-  <si>
-    <t>OPQA-236</t>
-  </si>
-  <si>
-    <t>1PAUTHORING</t>
-  </si>
-  <si>
-    <t>/comments</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER1)||Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
-    <t>comments.id</t>
-  </si>
-  <si>
-    <t>OPQA-208</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an article contained in his watchlist</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>OPQA-286</t>
-  </si>
-  <si>
-    <t>Verify that user able to delete comment</t>
-  </si>
-  <si>
-    <t>/comments/comment/(OPQA-236_comments.id)</t>
-  </si>
-  <si>
-    <t>DELETE</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-236_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-450</t>
-  </si>
-  <si>
-    <t>Verify that Start following a user and verify the follow relationship for notification test.</t>
-  </si>
-  <si>
-    <t>1PFOLLOW</t>
-  </si>
-  <si>
-    <t>/follow/user/(SYS_USER1)/following/(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>status=201||followRelationship=IS_FOLLOWER</t>
-  </si>
-  <si>
-    <t>OPQA-206</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when he is followed by someone</t>
-  </si>
-  <si>
-    <t>status=200||type=FOLLOW||issuer.truid=(SYS_USER1)</t>
-  </si>
-  <si>
-    <t>OPQA-450_1</t>
-  </si>
-  <si>
-    <t>Verify that start following a user for my follower get notification for FOAF.</t>
-  </si>
-  <si>
-    <t>/follow/user/(SYS_USER2)/following/(SYS_USER3)</t>
-  </si>
-  <si>
-    <t>OPQA-213</t>
-  </si>
-  <si>
-    <t>Verify that user is able to receive notification when my friend is following some other user.</t>
-  </si>
-  <si>
-    <t>status=200||type=FRIENDS_FOLLOWED_OTHERS||issuer.truid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER3)||Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>OPQA-360</t>
-  </si>
-  <si>
-    <t>Verify that user is able to create a post and publish it.</t>
-  </si>
-  <si>
-    <t>/posts/</t>
-  </si>
-  <si>
-    <t>status=200||userId=(SYS_USER2)||found=true</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>OPQA-877</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following user published a post</t>
-  </si>
-  <si>
-    <t>status=200||type=POST_CREATED||post.id=(OPQA-360_id)||issuer.truid=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>OPQA-342</t>
-  </si>
-  <si>
-    <t>{"appreciate":"UP"}</t>
-  </si>
-  <si>
-    <t>Verify that the user is able to appreciate the post</t>
-  </si>
-  <si>
-    <t>/appreciation/appreciate/posts/(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=1||targetId=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>OPQA-342_1</t>
-  </si>
-  <si>
-    <t>OPQA-1013</t>
-  </si>
-  <si>
-    <t>Verify that user is receiving notification when someone liked his post(aggregated notification)</t>
-  </si>
-  <si>
-    <t>OPQA-342||OPQA-342_1</t>
-  </si>
-  <si>
-    <t>status=200||comments.userId=(SYS_USER2)</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER3)</t>
-  </si>
-  <si>
-    <t>OPQA-207</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following comments on an article</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>OPQA-284</t>
-  </si>
-  <si>
-    <t>Verify that user Appreciate comment for notification test</t>
-  </si>
-  <si>
-    <t>/appreciation/appreciate/Comment/(OPQA-236_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-236_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-284_1</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=2||targetId=(OPQA-236_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-209</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment an article</t>
-  </si>
-  <si>
-    <t>OPQA-284||OPQA-284_1</t>
-  </si>
-  <si>
-    <t>Verify that user able to add new article in to his watchlist for notification test</t>
-  </si>
-  <si>
-    <t>Verify that user able to add new post in to his watchlist for notification test</t>
-  </si>
-  <si>
-    <t>Verify that user2 create comment in user3 watching article</t>
-  </si>
-  <si>
-    <t>OPQA-385</t>
-  </si>
-  <si>
-    <t>Verify that user is able to add comments on the posts.</t>
-  </si>
-  <si>
-    <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test"}</t>
-  </si>
-  <si>
-    <t>OPQA-215</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Verify that user able to recevies a notification when other user commented on his post </t>
-  </si>
-  <si>
-    <t>OPQA-217</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on an post contained in his watchlist</t>
-  </si>
-  <si>
-    <t>OPQA-216</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following user comments on a post</t>
-  </si>
-  <si>
-    <t>OPQA-364</t>
-  </si>
-  <si>
-    <t>/appreciation/appreciate/Comment/(OPQA-385_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=1||targetId=(OPQA-385_comments.id)</t>
-  </si>
-  <si>
-    <t>Verify that the user is able to appreciate the Comments of post</t>
-  </si>
-  <si>
-    <t>OPQA-364_1</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=Comment||appreciateCount=2||targetId=(OPQA-385_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-364||OPQA-364_1</t>
-  </si>
-  <si>
-    <t>/comments/comment/(OPQA-385_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-286_1</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-385_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-461</t>
-  </si>
-  <si>
-    <t>verify that user able to unfollow a following user</t>
-  </si>
-  <si>
-    <t>status=200||followRelationship=IS_NONE</t>
-  </si>
-  <si>
-    <t>OPQA-461_1</t>
-  </si>
-  <si>
-    <t>x-1p-user=(SYS_USER3)</t>
-  </si>
-  <si>
-    <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=2||targetId=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-236_comments.id)||comment.text=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||publication.id=(OPQA-360_id)||publication.title=Creating Post For API Notification Testing</t>
-  </si>
-  <si>
-    <t>OPQA-1076</t>
-  </si>
-  <si>
-    <t>Verfiy that user is able to delete their post</t>
-  </si>
-  <si>
-    <t>/posts/post/(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||userId=(SYS_USER2)||id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>OPQA-312</t>
-  </si>
-  <si>
-    <t>/containers/(OPQA-312_containerId)/items/wos::(OPQA-874_hits.hits._id)?itemType=wos</t>
+    <t>/container/(OPQA-312_id)</t>
   </si>
   <si>
     <t>{
-"containerId":"(OPQA-312_containerId)"
-"itemId":"wos::(OPQA-874_hits.hits._id)"
-"itemType":"wos"
+"name": "(OPQA-312_name)",
+"desc": "Public watchList for Notification testing",
+"ispublic": "true"
 }</t>
   </si>
   <si>
-    <t>/containers/(OPQA-312_containerId)/items/posts::(OPQA-360_id)?itemType=posts</t>
+    <t>{"name":"Public watchList for Notification testing","desc":"Creating public watchList for Notification testing","ispublic":true,"type":"watchlist"}</t>
+  </si>
+  <si>
+    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||id=(OPQA-312_id)||publication.action=EDIT_PERMISSIONS_IN_WATCHLIST</t>
+  </si>
+  <si>
+    <t>/container/(OPQA-312_id)/items?type=watchlist</t>
+  </si>
+  <si>
+    <t>x-1p-user=(SYS_USER3)||Content-Type=application/json</t>
   </si>
   <si>
     <t>{
-"containerId":"(OPQA-312_containerId)"
-"itemId":"posts::(OPQA-360_id)"
-"itemType":"posts"
+"items":
+[{
+"id":"(OPQA-874_hits.hits._id)",
+"type":"wos"
+}]
 }</t>
   </si>
   <si>
-    <t>OPQA-360||OPQA-312</t>
-  </si>
-  <si>
-    <t>OPQA-874||OPQA-312</t>
-  </si>
-  <si>
-    <t>OPQA-310</t>
-  </si>
-  <si>
-    <t>OPQA-310_1</t>
-  </si>
-  <si>
-    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||publication.id=(OPQA-312_containerId)||publication.action=CREATE_WATCHLIST</t>
-  </si>
-  <si>
-    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||publication.id=(OPQA-312_containerId)||publication.action=EDIT_PERMISSIONS_IN_WATCHLIST</t>
-  </si>
-  <si>
     <t>{
-"containerId": "(OPQA-312_containerId)",
-"containerName": "Public watchList for Notification testing",
-"containerStatus": "makePrivate"
+"items":
+[{
+"id":"(OPQA-360_id)",
+"type":"posts"
+}]
 }</t>
   </si>
   <si>
-    <t>PUT</t>
-  </si>
-  <si>
-    <t>/containers/(OPQA-312_containerId)/makePrivate</t>
-  </si>
-  <si>
-    <t>/containers/(OPQA-312_containerId)/makePublic</t>
-  </si>
-  <si>
     <t>{
-"containerId": "(OPQA-312_containerId)",
-"containerName": "Public watchList for Notification testing",
-"containerStatus": "makePublic"
+"items":
+[{
+"id":"(OPQA-898_hits.hits._id)",
+"type":"patents"
+}]
 }</t>
-  </si>
-  <si>
-    <t>Verify that user is receiving notification when someone he is following made an existing watch list from private to public.</t>
-  </si>
-  <si>
-    <t>OPQA-1184</t>
-  </si>
-  <si>
-    <t>Verify that user is receiving notification when someone he is following created a public watch list. </t>
-  </si>
-  <si>
-    <t>OPQA-1183</t>
-  </si>
-  <si>
-    <t>OPQA-320</t>
-  </si>
-  <si>
-    <t>OPQA-330</t>
-  </si>
-  <si>
-    <t>Verify that user is able to update watch list from public to private</t>
-  </si>
-  <si>
-    <t>Verify that user is able to update watch list from  private to public</t>
-  </si>
-  <si>
-    <t>OPQA-218</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification if someone likes his comment on a post</t>
-  </si>
-  <si>
-    <t>OPQA-1395</t>
-  </si>
-  <si>
-    <t>Verify that all users receive notification when other user published a post .</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER4)</t>
-  </si>
-  <si>
-    <t>OPQA-898</t>
-  </si>
-  <si>
-    <t>Verify that to get patent id  for adding document in to users watch list</t>
-  </si>
-  <si>
-    <t>/patents/search</t>
-  </si>
-  <si>
-    <t>?query=biotechnology&amp;fields=sortdate&amp;sort=sortdate:desc&amp;size=1</t>
-  </si>
-  <si>
-    <t>Verify that user able to add patent in to his watchlist for notification test</t>
-  </si>
-  <si>
-    <t>/containers/(OPQA-312_containerId)/items/patents::(OPQA-898_hits.hits._id)?itemType=patents</t>
-  </si>
-  <si>
-    <t>{
-"containerId":"(OPQA-312_containerId)"
-"itemId":"patents::(OPQA-898_hits.hits._id)"
-"itemType":"patents"
-}</t>
-  </si>
-  <si>
-    <t>OPQA-898||OPQA-312</t>
-  </si>
-  <si>
-    <t>OPQA-310_2</t>
-  </si>
-  <si>
-    <t>Verify that user2 create comment in user3 watching patent</t>
-  </si>
-  <si>
-    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on a patent contained in his watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following comments on a patent</t>
-  </si>
-  <si>
-    <t>OPQA-286_2</t>
-  </si>
-  <si>
-    <t>OPQA-1431</t>
-  </si>
-  <si>
-    <t>/comments/comment/(OPQA-1431_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-1431_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-1432</t>
-  </si>
-  <si>
-    <t>OPQA-1433</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>OPQA-236||OPQA-310</t>
-  </si>
-  <si>
-    <t>OPQA-385||OPQA-310_1</t>
-  </si>
-  <si>
-    <t>X-1P-User=(SYS_USER4)||Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>status=200||comments.userId=(SYS_USER4)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER4)||comments.data.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER4)||comment.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>OPQA-1431||OPQA-310_2</t>
-  </si>
-  <si>
-    <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing"}</t>
   </si>
 </sst>
 </file>
@@ -1013,7 +1008,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L45"/>
+      <selection activeCell="L2" sqref="L2:L50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,7 +1018,7 @@
     <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="87.85546875" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="47.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="7" max="7" width="52.85546875" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="61.85546875" style="5" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
@@ -1072,25 +1067,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2" t="s">
         <v>28</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G2" t="s">
-        <v>33</v>
       </c>
       <c r="H2"/>
       <c r="J2" s="5" t="s">
@@ -1099,26 +1094,26 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H3"/>
       <c r="J3" s="5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1126,20 +1121,20 @@
         <v>15</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
@@ -1147,48 +1142,48 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1198,52 +1193,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1252,126 +1247,126 @@
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="8" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="J9" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="105">
+    </row>
+    <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>19</v>
+        <v>174</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>20</v>
+        <v>181</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>18</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>146</v>
+        <v>179</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>144</v>
+        <v>178</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1380,29 +1375,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>147</v>
+        <v>179</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1411,58 +1406,58 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="C14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F14" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="75">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="105">
       <c r="A15" s="5" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>134</v>
+        <v>183</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="I15" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
@@ -1470,16 +1465,16 @@
     </row>
     <row r="16" spans="1:12" ht="150">
       <c r="A16" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>13</v>
@@ -1489,180 +1484,180 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9" t="s">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="8" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E17" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E21" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F21" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1672,217 +1667,217 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E23" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F23" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G23" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>183</v>
+        <v>165</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C24" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E24" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F24" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G24" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I25" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I26" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C27" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G27" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="E28" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="75">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="105">
       <c r="A29" s="5" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C29" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>136</v>
+        <v>183</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>137</v>
+        <v>186</v>
       </c>
       <c r="I29" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1890,122 +1885,122 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="I30" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C31" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E31" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F31" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>187</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C32" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>188</v>
+        <v>170</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="C33" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D33" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F33" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>12</v>
@@ -2013,145 +2008,145 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="C36" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D36" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E36" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F36" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="G36" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>185</v>
+        <v>167</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="75">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="105">
       <c r="A38" s="5" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="C38" t="s">
-        <v>17</v>
+        <v>173</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>124</v>
+        <v>184</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="I38" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>12</v>
@@ -2159,16 +2154,16 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="8" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2178,177 +2173,178 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="4" t="s">
-        <v>172</v>
+        <v>154</v>
       </c>
       <c r="I39" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>179</v>
+        <v>161</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="C40" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D40" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E40" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>181</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>180</v>
+        <v>162</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="C41" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D41" s="6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E41" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>182</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="5" t="s">
-        <v>175</v>
+        <v>157</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>177</v>
+        <v>159</v>
       </c>
       <c r="E42" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>176</v>
+        <v>158</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>178</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H43"/>
       <c r="J43" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="E44" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="H44"/>
       <c r="J44" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="K45" s="8"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:L45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -73,18 +73,12 @@
     <t>Verify that to get document id for adding document in to users watch list</t>
   </si>
   <si>
-    <t>1PSEARCHV3</t>
-  </si>
-  <si>
     <t>/wos/search</t>
   </si>
   <si>
     <t>GET</t>
   </si>
   <si>
-    <t>hits.hits._id</t>
-  </si>
-  <si>
     <t>?query=bio&amp;size=1&amp;sort=sortdate:desc</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>X-1P-User=(SYS_USER1)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>comments.id</t>
   </si>
   <si>
@@ -265,12 +256,6 @@
     <t>Verify that user receives a notification when someone he is following comments on an article</t>
   </si>
   <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.hits._id)</t>
-  </si>
-  <si>
     <t>OPQA-284</t>
   </si>
   <si>
@@ -481,9 +466,6 @@
     <t>Verify that user2 create comment in user3 watching patent</t>
   </si>
   <si>
-    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.hits._id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>Verify that user receives a notification when someone comments on a patent contained in his watchlist</t>
   </si>
   <si>
@@ -506,12 +488,6 @@
   </si>
   <si>
     <t>OPQA-1433</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.hits._id)</t>
   </si>
   <si>
     <t>OPQA-236||OPQA-310</t>
@@ -580,15 +556,6 @@
   </si>
   <si>
     <t>x-1p-user=(SYS_USER3)||Content-Type=application/json</t>
-  </si>
-  <si>
-    <t>{
-"items":
-[{
-"id":"(OPQA-874_hits.hits._id)",
-"type":"wos"
-}]
-}</t>
   </si>
   <si>
     <t>{
@@ -600,13 +567,46 @@
 }</t>
   </si>
   <si>
+    <t>1PSEARCHV4</t>
+  </si>
+  <si>
+    <t>hits.id</t>
+  </si>
+  <si>
+    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.id)","content":"Notification Test"}</t>
+  </si>
+  <si>
     <t>{
 "items":
 [{
-"id":"(OPQA-898_hits.hits._id)",
+"id":"(OPQA-898_hits.id)",
 "type":"patents"
 }]
 }</t>
+  </si>
+  <si>
+    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.id)","content":"Notification Test"}</t>
+  </si>
+  <si>
+    <t>{
+"items":
+[{
+"id":"(OPQA-874_hits.id)",
+"type":"wos"
+}]
+}</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.id)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.id)</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1008,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L50"/>
+      <selection activeCell="L2" sqref="L2:L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1067,25 +1067,25 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="G2" t="s">
         <v>26</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G2" t="s">
-        <v>28</v>
       </c>
       <c r="H2"/>
       <c r="J2" s="5" t="s">
@@ -1094,26 +1094,26 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
         <v>26</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
       </c>
       <c r="H3"/>
       <c r="J3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1124,17 +1124,17 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
+        <v>178</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H4" s="4"/>
       <c r="I4" s="1"/>
@@ -1142,48 +1142,48 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>178</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>21</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>46</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>49</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1193,52 +1193,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D7" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" t="s">
         <v>26</v>
-      </c>
-      <c r="E7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G7" t="s">
-        <v>28</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1247,126 +1247,126 @@
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="G9" t="s">
         <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
-      </c>
-      <c r="F9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G9" t="s">
-        <v>28</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
         <v>26</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F11" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" t="s">
-        <v>28</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C12" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1375,29 +1375,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C13" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1406,58 +1406,58 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D14" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14" t="s">
+        <v>37</v>
+      </c>
+      <c r="G14" t="s">
         <v>26</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
-      </c>
-      <c r="F14" t="s">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>28</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="105">
       <c r="A15" s="5" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C15" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="I15" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
@@ -1465,16 +1465,16 @@
     </row>
     <row r="16" spans="1:12" ht="150">
       <c r="A16" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>13</v>
@@ -1484,180 +1484,180 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="8" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C17" t="s">
+        <v>23</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F17" t="s">
         <v>25</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="G17" t="s">
         <v>26</v>
-      </c>
-      <c r="E17" t="s">
-        <v>20</v>
-      </c>
-      <c r="F17" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" t="s">
-        <v>28</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D18" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F18" t="s">
+        <v>76</v>
+      </c>
+      <c r="G18" t="s">
         <v>26</v>
-      </c>
-      <c r="E18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G18" t="s">
-        <v>28</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>72</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="8" t="s">
         <v>70</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>73</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" t="s">
+        <v>37</v>
+      </c>
+      <c r="G21" t="s">
         <v>26</v>
-      </c>
-      <c r="E21" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
-      </c>
-      <c r="G21" t="s">
-        <v>28</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="30">
       <c r="A22" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C22" t="s">
+        <v>31</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="C22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1667,217 +1667,217 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K22" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D23" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E23" t="s">
+        <v>19</v>
+      </c>
+      <c r="F23" t="s">
+        <v>76</v>
+      </c>
+      <c r="G23" t="s">
         <v>26</v>
-      </c>
-      <c r="E23" t="s">
-        <v>20</v>
-      </c>
-      <c r="F23" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" t="s">
-        <v>28</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>83</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24" t="s">
+        <v>19</v>
+      </c>
+      <c r="F24" t="s">
         <v>25</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="G24" t="s">
         <v>26</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24" t="s">
-        <v>27</v>
-      </c>
-      <c r="G24" t="s">
-        <v>28</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>82</v>
+        <v>184</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C25" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I25" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C27" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D27" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>19</v>
+      </c>
+      <c r="F27" t="s">
+        <v>37</v>
+      </c>
+      <c r="G27" t="s">
         <v>26</v>
-      </c>
-      <c r="E27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" t="s">
-        <v>28</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
         <v>41</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="E28" t="s">
-        <v>44</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="105">
       <c r="A29" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C29" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1885,122 +1885,122 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="I30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="C31" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+      <c r="G31" t="s">
         <v>26</v>
-      </c>
-      <c r="E31" t="s">
-        <v>20</v>
-      </c>
-      <c r="F31" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" t="s">
-        <v>28</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" t="s">
+        <v>19</v>
+      </c>
+      <c r="F32" t="s">
         <v>25</v>
       </c>
-      <c r="D32" s="6" t="s">
+      <c r="G32" t="s">
         <v>26</v>
-      </c>
-      <c r="E32" t="s">
-        <v>20</v>
-      </c>
-      <c r="F32" t="s">
-        <v>27</v>
-      </c>
-      <c r="G32" t="s">
-        <v>28</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="12" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D33" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" t="s">
+        <v>37</v>
+      </c>
+      <c r="G33" t="s">
         <v>26</v>
-      </c>
-      <c r="E33" t="s">
-        <v>20</v>
-      </c>
-      <c r="F33" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" t="s">
-        <v>28</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>12</v>
@@ -2008,145 +2008,145 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D36" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>19</v>
+      </c>
+      <c r="F36" t="s">
+        <v>140</v>
+      </c>
+      <c r="G36" t="s">
         <v>26</v>
-      </c>
-      <c r="E36" t="s">
-        <v>20</v>
-      </c>
-      <c r="F36" t="s">
-        <v>145</v>
-      </c>
-      <c r="G36" t="s">
-        <v>28</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="105">
       <c r="A38" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C38" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="I38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>12</v>
@@ -2154,16 +2154,16 @@
     </row>
     <row r="39" spans="1:11" ht="30">
       <c r="A39" s="8" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C39" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D39" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2173,178 +2173,177 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="4" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="K39" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D40" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" t="s">
+        <v>76</v>
+      </c>
+      <c r="G40" t="s">
         <v>26</v>
-      </c>
-      <c r="E40" t="s">
-        <v>20</v>
-      </c>
-      <c r="F40" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" t="s">
-        <v>28</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="C41" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" t="s">
         <v>25</v>
       </c>
-      <c r="D41" s="6" t="s">
+      <c r="G41" t="s">
         <v>26</v>
-      </c>
-      <c r="E41" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" t="s">
-        <v>27</v>
-      </c>
-      <c r="G41" t="s">
-        <v>28</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>164</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D43" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H43"/>
       <c r="J43" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C44" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="H44"/>
       <c r="J44" s="5" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="K45" s="8"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L45"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
   <si>
     <t>API</t>
   </si>
@@ -121,9 +121,6 @@
     <t>X-1P-User=(SYS_USER1)||Content-Type=application/json</t>
   </si>
   <si>
-    <t>comments.id</t>
-  </si>
-  <si>
     <t>OPQA-208</t>
   </si>
   <si>
@@ -298,9 +295,6 @@
     <t>Verify that user is able to add comments on the posts.</t>
   </si>
   <si>
-    <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>OPQA-215</t>
   </si>
   <si>
@@ -364,12 +358,6 @@
     <t>status=200||hasAppreciated=UP||targetType=posts||appreciateCount=2||targetId=(OPQA-360_id)</t>
   </si>
   <si>
-    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=Notification Test</t>
-  </si>
-  <si>
-    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-236_comments.id)||comment.text=Notification Test</t>
-  </si>
-  <si>
     <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||publication.id=(OPQA-360_id)||publication.title=Creating Post For API Notification Testing</t>
   </si>
   <si>
@@ -502,12 +490,6 @@
     <t>status=200||comments.userId=(SYS_USER4)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
   </si>
   <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER4)||comments.data.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER4)||comment.text=Notification Test||publication.id=(OPQA-360_id)</t>
-  </si>
-  <si>
     <t>OPQA-1431||OPQA-310_2</t>
   </si>
   <si>
@@ -521,9 +503,6 @@
   </si>
   <si>
     <t>status=200||type=watchlist||ispublic=true</t>
-  </si>
-  <si>
-    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||id=(OPQA-312_id)||publication.action=CREATE_WATCHLIST</t>
   </si>
   <si>
     <t>id||name</t>
@@ -547,9 +526,6 @@
   </si>
   <si>
     <t>{"name":"Public watchList for Notification testing","desc":"Creating public watchList for Notification testing","ispublic":true,"type":"watchlist"}</t>
-  </si>
-  <si>
-    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)||id=(OPQA-312_id)||publication.action=EDIT_PERMISSIONS_IN_WATCHLIST</t>
   </si>
   <si>
     <t>/container/(OPQA-312_id)/items?type=watchlist</t>
@@ -573,9 +549,6 @@
     <t>hits.id</t>
   </si>
   <si>
-    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>{
 "items":
 [{
@@ -585,9 +558,6 @@
 }</t>
   </si>
   <si>
-    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.id)","content":"Notification Test"}</t>
-  </si>
-  <si>
     <t>{
 "items":
 [{
@@ -597,16 +567,43 @@
 }</t>
   </si>
   <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-874_hits.id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-898_hits.id)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=Notification Test||publication.id=(OPQA-898_hits.id)</t>
-  </si>
-  <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=Notification Test||publication.id=(OPQA-874_hits.id)</t>
+    <t>{"targetType":"wos","targetId":"(OPQA-874_hits.id)","content":"Notification Test(ddMMMyyyy_HHmmss)"}</t>
+  </si>
+  <si>
+    <t>comments.id||comments.content</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=(OPQA-236_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=(OPQA-236_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER4)||comments.data.text=(OPQA-385_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER4)||comment.text=(OPQA-385_comments.content)</t>
+  </si>
+  <si>
+    <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test(ddMMMyyyy_HHmmss)"}</t>
+  </si>
+  <si>
+    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.id)","content":"Notification Test(ddMMMyyyy_HHmmss)"}</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=(OPQA-385_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=(OPQA-1431_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=(OPQA-1431_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-236_comments.id)||comment.text=(OPQA-236_comments.content)</t>
+  </si>
+  <si>
+    <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1005,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L49"/>
+      <selection activeCell="L2" sqref="L2:L56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1023,7 +1020,7 @@
     <col min="8" max="8" width="61.85546875" style="5" customWidth="1" collapsed="1"/>
     <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="93.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
     <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
@@ -1124,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
@@ -1142,48 +1139,48 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="6" t="s">
         <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>46</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1193,16 +1190,16 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>48</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>49</v>
       </c>
       <c r="C7" t="s">
         <v>23</v>
@@ -1214,31 +1211,31 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G7" t="s">
         <v>26</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>52</v>
-      </c>
-      <c r="C8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>53</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1247,16 +1244,16 @@
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>23</v>
@@ -1275,49 +1272,49 @@
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C11" t="s">
         <v>23</v>
@@ -1329,44 +1326,44 @@
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G11" t="s">
         <v>26</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>168</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C12" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1375,29 +1372,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C13" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1406,10 +1403,10 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C14" t="s">
         <v>23</v>
@@ -1421,43 +1418,43 @@
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G14" t="s">
         <v>26</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>174</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="105">
       <c r="A15" s="5" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C15" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="I15" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
@@ -1465,16 +1462,16 @@
     </row>
     <row r="16" spans="1:12" ht="150">
       <c r="A16" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>58</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>59</v>
       </c>
       <c r="C16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>13</v>
@@ -1484,22 +1481,22 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>61</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>63</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>64</v>
       </c>
       <c r="C17" t="s">
         <v>23</v>
@@ -1518,18 +1515,18 @@
       </c>
       <c r="H17"/>
       <c r="I17" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C18" t="s">
         <v>23</v>
@@ -1541,31 +1538,31 @@
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G18" t="s">
         <v>26</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
@@ -1575,53 +1572,53 @@
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>73</v>
       </c>
       <c r="C21" t="s">
         <v>23</v>
@@ -1633,25 +1630,25 @@
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G21" t="s">
         <v>26</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="30">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="8" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" t="s">
         <v>31</v>
@@ -1667,24 +1664,24 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K22" s="8" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>35</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>36</v>
       </c>
       <c r="C23" t="s">
         <v>23</v>
@@ -1696,25 +1693,25 @@
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G23" t="s">
         <v>26</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>77</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="C24" t="s">
         <v>23</v>
@@ -1736,21 +1733,21 @@
         <v>30</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
@@ -1759,50 +1756,50 @@
         <v>33</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I25" t="s">
         <v>30</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C26" t="s">
         <v>31</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I26" t="s">
         <v>30</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>86</v>
       </c>
       <c r="C27" t="s">
         <v>23</v>
@@ -1814,34 +1811,34 @@
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G27" t="s">
         <v>26</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>116</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>38</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>39</v>
       </c>
       <c r="C28" t="s">
         <v>31</v>
       </c>
       <c r="D28" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E28" t="s">
         <v>40</v>
-      </c>
-      <c r="E28" t="s">
-        <v>41</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
@@ -1851,33 +1848,33 @@
         <v>30</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="105">
       <c r="A29" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C29" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H29" s="5" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="I29" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1885,10 +1882,10 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="C30" s="10" t="s">
         <v>31</v>
@@ -1900,28 +1897,28 @@
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>93</v>
+        <v>180</v>
       </c>
       <c r="I30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K30" s="10" t="s">
-        <v>34</v>
+        <v>156</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
         <v>23</v>
@@ -1933,25 +1930,25 @@
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G31" t="s">
         <v>26</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C32" t="s">
         <v>23</v>
@@ -1970,18 +1967,18 @@
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>162</v>
+        <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="12" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C33" t="s">
         <v>23</v>
@@ -1993,14 +1990,14 @@
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G33" t="s">
         <v>26</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>12</v>
@@ -2008,16 +2005,16 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C34" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D34" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -2027,51 +2024,51 @@
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C36" t="s">
         <v>23</v>
@@ -2083,81 +2080,81 @@
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G36" t="s">
         <v>26</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C37" t="s">
         <v>31</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="105">
       <c r="A38" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="C38" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="I38" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="30">
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C39" t="s">
         <v>31</v>
@@ -2173,24 +2170,24 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="4" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="I39" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="K39" s="8" t="s">
-        <v>34</v>
+        <v>74</v>
+      </c>
+      <c r="K39" s="9" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C40" t="s">
         <v>23</v>
@@ -2202,25 +2199,25 @@
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G40" t="s">
         <v>26</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C41" t="s">
         <v>23</v>
@@ -2239,107 +2236,107 @@
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
         <v>31</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C43" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H43"/>
       <c r="J43" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C44" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H44"/>
       <c r="J44" s="5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>31</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="K45" s="8"/>
     </row>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L56"/>
+      <selection activeCell="L2" sqref="L2:L59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -88,9 +88,6 @@
     <t>Verify that to get notification for user</t>
   </si>
   <si>
-    <t>1PNOTIFY</t>
-  </si>
-  <si>
     <t>/notify/list</t>
   </si>
   <si>
@@ -604,6 +601,9 @@
   </si>
   <si>
     <t>status=200||type=PUBLIC_WATCHLIST||issuer.truid=(SYS_USER3)</t>
+  </si>
+  <si>
+    <t>1PNOTIFYV1</t>
   </si>
 </sst>
 </file>
@@ -1005,7 +1005,7 @@
   <dimension ref="A1:L45"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L59"/>
+      <selection activeCell="L5" sqref="L5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1070,19 +1070,19 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E2" t="s">
         <v>19</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
-      </c>
-      <c r="G2" t="s">
-        <v>26</v>
       </c>
       <c r="H2"/>
       <c r="J2" s="5" t="s">
@@ -1091,26 +1091,26 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>28</v>
-      </c>
       <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E3" t="s">
         <v>19</v>
       </c>
       <c r="G3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H3"/>
       <c r="J3" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1121,7 +1121,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
@@ -1139,48 +1139,48 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="30">
       <c r="A5" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>137</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="C5" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>138</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>139</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:12" ht="30">
       <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" t="s">
         <v>43</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" s="6" t="s">
         <v>44</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>45</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1190,52 +1190,52 @@
       <c r="H6" s="4"/>
       <c r="I6" s="1"/>
       <c r="J6" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
       <c r="C7" t="s">
+        <v>186</v>
+      </c>
+      <c r="D7" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E7" t="s">
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>51</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>52</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>13</v>
@@ -1244,126 +1244,126 @@
       <c r="G8" s="1"/>
       <c r="H8" s="4"/>
       <c r="J8" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:12" ht="30">
       <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>54</v>
-      </c>
       <c r="C9" t="s">
+        <v>186</v>
+      </c>
+      <c r="D9" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E9" t="s">
         <v>19</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" t="s">
         <v>25</v>
-      </c>
-      <c r="G9" t="s">
-        <v>26</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
       <c r="A10" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G10" s="5"/>
       <c r="H10" s="4" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="30">
       <c r="A11" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C11" t="s">
+        <v>186</v>
+      </c>
+      <c r="D11" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E11" t="s">
         <v>19</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H11"/>
       <c r="I11" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="75">
       <c r="A12" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G12" s="5"/>
       <c r="H12" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1372,29 +1372,29 @@
     </row>
     <row r="13" spans="1:12" ht="75">
       <c r="A13" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>12</v>
@@ -1403,58 +1403,58 @@
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C14" t="s">
+        <v>186</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E14" t="s">
         <v>19</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G14" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H14"/>
       <c r="I14" s="5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="105">
       <c r="A15" s="5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C15" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>12</v>
@@ -1462,16 +1462,16 @@
     </row>
     <row r="16" spans="1:12" ht="150">
       <c r="A16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B16" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C16" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
         <v>58</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>59</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>13</v>
@@ -1481,180 +1481,180 @@
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="I16" s="8"/>
       <c r="J16" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="30">
       <c r="A17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5" t="s">
-        <v>63</v>
-      </c>
       <c r="C17" t="s">
+        <v>186</v>
+      </c>
+      <c r="D17" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D17" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E17" t="s">
         <v>19</v>
       </c>
       <c r="F17" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" t="s">
         <v>25</v>
-      </c>
-      <c r="G17" t="s">
-        <v>26</v>
       </c>
       <c r="H17"/>
       <c r="I17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>135</v>
-      </c>
       <c r="C18" t="s">
+        <v>186</v>
+      </c>
+      <c r="D18" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E18" t="s">
         <v>19</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H18"/>
       <c r="I18" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="30">
       <c r="A19" s="8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B19" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J19" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="K19" s="8"/>
     </row>
     <row r="20" spans="1:11" ht="30">
       <c r="A20" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
         <v>67</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>68</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J20" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K20" s="8"/>
     </row>
     <row r="21" spans="1:11" ht="30">
       <c r="A21" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="B21" s="5" t="s">
-        <v>72</v>
-      </c>
       <c r="C21" t="s">
+        <v>186</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E21" t="s">
         <v>19</v>
       </c>
       <c r="F21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G21" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="J21" s="5" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="45">
       <c r="A22" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C22" t="s">
         <v>30</v>
       </c>
-      <c r="B22" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E22" s="1" t="s">
         <v>13</v>
@@ -1664,217 +1664,217 @@
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="4" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I22" t="s">
         <v>15</v>
       </c>
       <c r="J22" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K22" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="30">
       <c r="A23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B23" s="5" t="s">
-        <v>35</v>
-      </c>
       <c r="C23" t="s">
+        <v>186</v>
+      </c>
+      <c r="D23" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E23" t="s">
         <v>19</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="30">
       <c r="A24" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="C24" t="s">
+        <v>186</v>
+      </c>
+      <c r="D24" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E24" t="s">
         <v>19</v>
       </c>
       <c r="F24" t="s">
+        <v>24</v>
+      </c>
+      <c r="G24" t="s">
         <v>25</v>
-      </c>
-      <c r="G24" t="s">
-        <v>26</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J24" s="5" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="30">
       <c r="A25" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="C25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D25" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E25" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H25" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I25" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J25" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="30">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="6" t="s">
         <v>79</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>80</v>
       </c>
       <c r="E26" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H26" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J26" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="30">
       <c r="A27" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="C27" t="s">
+        <v>186</v>
+      </c>
+      <c r="D27" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E27" t="s">
         <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J27" s="5" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="30">
       <c r="A28" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D28" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C28" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="6" t="s">
+      <c r="E28" t="s">
         <v>39</v>
-      </c>
-      <c r="E28" t="s">
-        <v>40</v>
       </c>
       <c r="F28" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H28"/>
       <c r="I28" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="105">
       <c r="A29" s="5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F29" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="I29" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>12</v>
@@ -1882,122 +1882,122 @@
     </row>
     <row r="30" spans="1:11" ht="30">
       <c r="A30" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B30" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="B30" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="C30" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="I30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J30" s="9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K30" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="30">
       <c r="A31" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B31" s="5" t="s">
-        <v>95</v>
-      </c>
       <c r="C31" t="s">
+        <v>186</v>
+      </c>
+      <c r="D31" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E31" t="s">
         <v>19</v>
       </c>
       <c r="F31" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G31" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H31"/>
       <c r="I31" s="8" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J31" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="30">
       <c r="A32" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B32" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="B32" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E32" t="s">
         <v>19</v>
       </c>
       <c r="F32" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" t="s">
         <v>25</v>
-      </c>
-      <c r="G32" t="s">
-        <v>26</v>
       </c>
       <c r="H32"/>
       <c r="I32" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J32" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="30">
       <c r="A33" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="C33" t="s">
+        <v>186</v>
+      </c>
+      <c r="D33" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E33" t="s">
         <v>19</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G33" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H33"/>
       <c r="I33" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>12</v>
@@ -2005,145 +2005,145 @@
     </row>
     <row r="34" spans="1:11" ht="30">
       <c r="A34" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="6" t="s">
         <v>98</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>99</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="9" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J34" s="9" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K34" s="8"/>
     </row>
     <row r="35" spans="1:11" ht="30">
       <c r="A35" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D35" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E35" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H35" s="5" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J35" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:11" ht="30">
       <c r="A36" t="s">
+        <v>131</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B36" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="C36" t="s">
+        <v>186</v>
+      </c>
+      <c r="D36" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E36" t="s">
         <v>19</v>
       </c>
       <c r="F36" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G36" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H36"/>
       <c r="I36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="J36" s="5" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="30">
       <c r="A37" s="8" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C37" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="H37"/>
       <c r="I37" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J37" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="105">
       <c r="A38" s="5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C38" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E38" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F38" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H38" s="5" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="I38" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>12</v>
@@ -2151,16 +2151,16 @@
     </row>
     <row r="39" spans="1:11" ht="45">
       <c r="A39" s="8" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D39" s="6" t="s">
         <v>31</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>32</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>13</v>
@@ -2170,173 +2170,173 @@
       </c>
       <c r="G39" s="8"/>
       <c r="H39" s="4" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="I39" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J39" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="K39" s="9" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="30">
       <c r="A40" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C40" t="s">
+        <v>186</v>
+      </c>
+      <c r="D40" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E40" t="s">
         <v>19</v>
       </c>
       <c r="F40" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G40" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H40"/>
       <c r="I40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="30">
       <c r="A41" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C41" t="s">
+        <v>186</v>
+      </c>
+      <c r="D41" s="6" t="s">
         <v>23</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>24</v>
       </c>
       <c r="E41" t="s">
         <v>19</v>
       </c>
       <c r="F41" t="s">
+        <v>24</v>
+      </c>
+      <c r="G41" t="s">
         <v>25</v>
-      </c>
-      <c r="G41" t="s">
-        <v>26</v>
       </c>
       <c r="H41"/>
       <c r="I41" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="30">
       <c r="A42" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D42" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F42" s="9" t="s">
         <v>14</v>
       </c>
       <c r="H42"/>
       <c r="I42" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J42" s="4" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="43" spans="1:11">
       <c r="A43" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="C43" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="D43" s="6" t="s">
-        <v>45</v>
-      </c>
       <c r="E43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H43"/>
       <c r="J43" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:11">
       <c r="A44" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H44"/>
       <c r="J44" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:11">
       <c r="A45" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="5" t="s">
+      <c r="C45" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D45" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="C45" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>116</v>
-      </c>
       <c r="E45" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F45" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G45" s="8"/>
       <c r="H45" s="8"/>
       <c r="I45" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J45" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K45" s="8"/>
     </row>

--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -4,20 +4,18 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385"/>
+    <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Notify" sheetId="1" r:id="rId1"/>
+    <sheet name="NotifyV1_Events" sheetId="2" r:id="rId1"/>
+    <sheet name="NotifyV1_Notifications" sheetId="3" r:id="rId2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Notify!$A$1:$L$45</definedName>
-  </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="390" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="187">
   <si>
     <t>API</t>
   </si>
@@ -1002,26 +1000,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L45"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="73" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="87.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="53.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="52.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="61.85546875" style="5" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="93.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="43.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -1084,12 +1081,11 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2"/>
       <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" ht="30">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1108,12 +1104,11 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
-      <c r="H3"/>
       <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" ht="30">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1161,7 +1156,6 @@
       <c r="G5" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H5"/>
       <c r="J5" s="1" t="s">
         <v>12</v>
       </c>
@@ -1194,12 +1188,734 @@
       </c>
       <c r="K6" s="1"/>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" ht="30">
       <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="4"/>
+      <c r="J7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K7" s="1"/>
+    </row>
+    <row r="8" spans="1:12" ht="60">
+      <c r="A8" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="5"/>
+      <c r="H8" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90">
+      <c r="A9" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" t="s">
+        <v>158</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" s="5"/>
+      <c r="H9" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="90">
+      <c r="A10" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="5"/>
+      <c r="H10" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1"/>
+    </row>
+    <row r="11" spans="1:12" ht="105">
+      <c r="A11" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="I11" t="s">
+        <v>119</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="210">
+      <c r="A12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" s="8"/>
+      <c r="J12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J13" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K13" s="8"/>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K14" s="8"/>
+    </row>
+    <row r="15" spans="1:12" ht="60">
+      <c r="A15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="I15" t="s">
+        <v>15</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75">
+      <c r="A16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" t="s">
+        <v>30</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I16" t="s">
+        <v>29</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="75">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E17" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I17" t="s">
+        <v>29</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="105">
+      <c r="A18" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F18" t="s">
+        <v>167</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="I18" t="s">
+        <v>118</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="105">
+      <c r="A19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G19" s="8"/>
+      <c r="H19" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="I19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>155</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75">
+      <c r="A20" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="8"/>
+      <c r="H20" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I20" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K20" s="8"/>
+    </row>
+    <row r="21" spans="1:11" ht="75">
+      <c r="A21" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I21" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="105">
+      <c r="A22" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="C22" t="s">
+        <v>158</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" t="s">
+        <v>167</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="I22" t="s">
+        <v>141</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60">
+      <c r="A23" s="8" t="s">
+        <v>147</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="I23" t="s">
+        <v>136</v>
+      </c>
+      <c r="J23" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K23" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2:L33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="46.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="30">
+      <c r="A2" t="s">
         <v>46</v>
       </c>
+      <c r="B2" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30">
+      <c r="A3" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="C3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>49</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45">
+      <c r="A4" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="C4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45">
+      <c r="A5" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30">
+      <c r="A6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" t="s">
+        <v>186</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" s="8" t="s">
+        <v>133</v>
+      </c>
       <c r="B7" s="5" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
       <c r="C7" t="s">
         <v>186</v>
@@ -1211,49 +1927,53 @@
         <v>19</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>74</v>
       </c>
       <c r="G7" t="s">
         <v>25</v>
       </c>
-      <c r="H7"/>
-      <c r="I7" t="s">
-        <v>41</v>
+      <c r="I7" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" t="s">
-        <v>49</v>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60">
+      <c r="A8" s="5" t="s">
+        <v>70</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>50</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>186</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" t="s">
+        <v>72</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:12" ht="30">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45">
       <c r="A9" s="8" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="C9" t="s">
         <v>186</v>
@@ -1265,56 +1985,53 @@
         <v>19</v>
       </c>
       <c r="F9" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="G9" t="s">
         <v>25</v>
       </c>
-      <c r="H9"/>
       <c r="I9" t="s">
-        <v>49</v>
+        <v>152</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="45">
-      <c r="A10" s="5" t="s">
-        <v>117</v>
+      <c r="A10" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I10" s="1"/>
+        <v>23</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
       <c r="J10" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="30">
-      <c r="A11" s="5" t="s">
-        <v>126</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60">
+      <c r="A11" t="s">
+        <v>83</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
         <v>186</v>
@@ -1331,82 +2048,77 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
-      <c r="H11"/>
-      <c r="I11" s="5" t="s">
-        <v>117</v>
+      <c r="I11" t="s">
+        <v>85</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="75">
-      <c r="A12" s="4" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>129</v>
+        <v>184</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="5"/>
-      <c r="H12" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" t="s">
+        <v>74</v>
+      </c>
+      <c r="G12" t="s">
+        <v>25</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>153</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K12" s="1"/>
-    </row>
-    <row r="13" spans="1:12" ht="75">
-      <c r="A13" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>130</v>
+        <v>177</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45">
+      <c r="A13" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>117</v>
+        <v>23</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="K13" s="1"/>
+        <v>178</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="30">
-      <c r="A14" s="5" t="s">
-        <v>124</v>
+      <c r="A14" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>123</v>
+        <v>92</v>
       </c>
       <c r="C14" t="s">
         <v>186</v>
@@ -1423,80 +2135,77 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
-      <c r="H14"/>
-      <c r="I14" s="5" t="s">
-        <v>117</v>
+      <c r="I14" t="s">
+        <v>89</v>
       </c>
       <c r="J14" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="105">
-      <c r="A15" s="5" t="s">
-        <v>120</v>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60">
+      <c r="A15" t="s">
+        <v>131</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>86</v>
+        <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>158</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>13</v>
+        <v>186</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>167</v>
-      </c>
-      <c r="H15" s="5" t="s">
-        <v>172</v>
+        <v>135</v>
+      </c>
+      <c r="G15" t="s">
+        <v>25</v>
       </c>
       <c r="I15" t="s">
-        <v>119</v>
+        <v>103</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="150">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="45">
       <c r="A16" s="8" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>30</v>
+        <v>144</v>
+      </c>
+      <c r="C16" t="s">
+        <v>186</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F16" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G16" s="8"/>
-      <c r="H16" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I16" s="8"/>
-      <c r="J16" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="30">
+        <v>23</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>74</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="8" t="s">
-        <v>61</v>
+        <v>151</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>145</v>
       </c>
       <c r="C17" t="s">
         <v>186</v>
@@ -1513,835 +2222,161 @@
       <c r="G17" t="s">
         <v>25</v>
       </c>
-      <c r="H17"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" t="s">
+        <v>147</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="60">
+      <c r="A18" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="E18" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>147</v>
+      </c>
+      <c r="J18" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" t="s">
+        <v>39</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="E20" t="s">
+        <v>39</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" t="s">
+        <v>113</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="8"/>
+      <c r="H21" s="8"/>
+      <c r="I21" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="J17" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11">
-      <c r="A18" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="C18" t="s">
-        <v>186</v>
-      </c>
-      <c r="D18" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" t="s">
-        <v>25</v>
-      </c>
-      <c r="H18"/>
-      <c r="I18" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="30">
-      <c r="A19" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="G19" s="8"/>
-      <c r="H19" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I19" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J19" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K19" s="8"/>
-    </row>
-    <row r="20" spans="1:11" ht="30">
-      <c r="A20" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J20" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="30">
-      <c r="A21" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" t="s">
-        <v>25</v>
-      </c>
-      <c r="H21"/>
-      <c r="I21" t="s">
-        <v>72</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="45">
+      <c r="J21" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K21" s="8"/>
+    </row>
+    <row r="22" spans="1:11" ht="60">
       <c r="A22" s="8" t="s">
-        <v>29</v>
+        <v>105</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>88</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
         <v>30</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
+        <v>104</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="I22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="60">
+      <c r="A23" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G22" s="8"/>
-      <c r="H22" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="I22" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="30">
-      <c r="A23" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s">
-        <v>186</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" t="s">
-        <v>74</v>
-      </c>
-      <c r="G23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H23"/>
       <c r="I23" t="s">
-        <v>152</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="30">
-      <c r="A24" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>186</v>
-      </c>
-      <c r="D24" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" t="s">
-        <v>19</v>
-      </c>
-      <c r="F24" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24"/>
-      <c r="I24" t="s">
         <v>29</v>
       </c>
-      <c r="J24" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" ht="30">
-      <c r="A25" t="s">
-        <v>77</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C25" t="s">
-        <v>30</v>
-      </c>
-      <c r="D25" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E25" t="s">
-        <v>13</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H25" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I25" t="s">
-        <v>29</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="30">
-      <c r="A26" t="s">
-        <v>81</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C26" t="s">
-        <v>30</v>
-      </c>
-      <c r="D26" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E26" t="s">
-        <v>13</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I26" t="s">
-        <v>29</v>
-      </c>
-      <c r="J26" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" ht="30">
-      <c r="A27" t="s">
-        <v>83</v>
-      </c>
-      <c r="B27" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="C27" t="s">
-        <v>186</v>
-      </c>
-      <c r="D27" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" t="s">
-        <v>35</v>
-      </c>
-      <c r="G27" t="s">
-        <v>25</v>
-      </c>
-      <c r="H27"/>
-      <c r="I27" t="s">
-        <v>85</v>
-      </c>
-      <c r="J27" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" ht="30">
-      <c r="A28" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B28" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C28" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H28"/>
-      <c r="I28" t="s">
-        <v>29</v>
-      </c>
-      <c r="J28" s="4" t="s">
+      <c r="J23" s="4" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" ht="105">
-      <c r="A29" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B29" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C29" t="s">
-        <v>158</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F29" t="s">
-        <v>167</v>
-      </c>
-      <c r="H29" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="I29" t="s">
-        <v>118</v>
-      </c>
-      <c r="J29" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" ht="30">
-      <c r="A30" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="B30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G30" s="8"/>
-      <c r="H30" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" ht="30">
-      <c r="A31" s="8" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="C31" t="s">
-        <v>186</v>
-      </c>
-      <c r="D31" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E31" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" t="s">
-        <v>74</v>
-      </c>
-      <c r="G31" t="s">
-        <v>25</v>
-      </c>
-      <c r="H31"/>
-      <c r="I31" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="J31" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" ht="30">
-      <c r="A32" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="B32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" t="s">
-        <v>186</v>
-      </c>
-      <c r="D32" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F32" t="s">
-        <v>24</v>
-      </c>
-      <c r="G32" t="s">
-        <v>25</v>
-      </c>
-      <c r="H32"/>
-      <c r="I32" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" ht="30">
-      <c r="A33" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="C33" t="s">
-        <v>186</v>
-      </c>
-      <c r="D33" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E33" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" t="s">
-        <v>35</v>
-      </c>
-      <c r="G33" t="s">
-        <v>25</v>
-      </c>
-      <c r="H33"/>
-      <c r="I33" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" ht="30">
-      <c r="A34" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="B34" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D34" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G34" s="8"/>
-      <c r="H34" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K34" s="8"/>
-    </row>
-    <row r="35" spans="1:11" ht="30">
-      <c r="A35" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E35" t="s">
-        <v>13</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="30">
-      <c r="A36" t="s">
-        <v>131</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C36" t="s">
-        <v>186</v>
-      </c>
-      <c r="D36" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" t="s">
-        <v>135</v>
-      </c>
-      <c r="G36" t="s">
-        <v>25</v>
-      </c>
-      <c r="H36"/>
-      <c r="I36" t="s">
-        <v>103</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" ht="30">
-      <c r="A37" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B37" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C37" t="s">
-        <v>30</v>
-      </c>
-      <c r="D37" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E37" t="s">
-        <v>39</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="H37"/>
-      <c r="I37" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="105">
-      <c r="A38" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C38" t="s">
-        <v>158</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" t="s">
-        <v>167</v>
-      </c>
-      <c r="H38" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I38" t="s">
-        <v>141</v>
-      </c>
-      <c r="J38" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" ht="45">
-      <c r="A39" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B39" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-      <c r="D39" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G39" s="8"/>
-      <c r="H39" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I39" t="s">
-        <v>136</v>
-      </c>
-      <c r="J39" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K39" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" ht="30">
-      <c r="A40" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="B40" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="C40" t="s">
-        <v>186</v>
-      </c>
-      <c r="D40" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E40" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" t="s">
-        <v>74</v>
-      </c>
-      <c r="G40" t="s">
-        <v>25</v>
-      </c>
-      <c r="H40"/>
-      <c r="I40" t="s">
-        <v>156</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="30">
-      <c r="A41" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="B41" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C41" t="s">
-        <v>186</v>
-      </c>
-      <c r="D41" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" t="s">
-        <v>25</v>
-      </c>
-      <c r="H41"/>
-      <c r="I41" t="s">
-        <v>147</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="30">
-      <c r="A42" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B42" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C42" t="s">
-        <v>30</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" t="s">
-        <v>39</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H42"/>
-      <c r="I42" t="s">
-        <v>147</v>
-      </c>
-      <c r="J42" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11">
-      <c r="A43" t="s">
-        <v>107</v>
-      </c>
-      <c r="B43" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C43" t="s">
-        <v>43</v>
-      </c>
-      <c r="D43" s="6" t="s">
-        <v>44</v>
-      </c>
-      <c r="E43" t="s">
-        <v>39</v>
-      </c>
-      <c r="H43"/>
-      <c r="J43" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11">
-      <c r="A44" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C44" t="s">
-        <v>43</v>
-      </c>
-      <c r="D44" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E44" t="s">
-        <v>39</v>
-      </c>
-      <c r="H44"/>
-      <c r="J44" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11">
-      <c r="A45" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G45" s="8"/>
-      <c r="H45" s="8"/>
-      <c r="I45" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J45" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K45" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/test/test-data/NotifyTestData.xlsx
+++ b/src/test/test-data/NotifyTestData.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent>
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\API Project\LatestAPIs\1p-api-automation\src\test\test-data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="2580" windowWidth="19440" windowHeight="5385" activeTab="1"/>
   </bookViews>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="168">
   <si>
     <t>API</t>
   </si>
@@ -425,54 +430,6 @@
     <t>X-1P-User=(SYS_USER4)</t>
   </si>
   <si>
-    <t>OPQA-898</t>
-  </si>
-  <si>
-    <t>Verify that to get patent id  for adding document in to users watch list</t>
-  </si>
-  <si>
-    <t>/patents/search</t>
-  </si>
-  <si>
-    <t>?query=biotechnology&amp;fields=sortdate&amp;sort=sortdate:desc&amp;size=1</t>
-  </si>
-  <si>
-    <t>Verify that user able to add patent in to his watchlist for notification test</t>
-  </si>
-  <si>
-    <t>OPQA-898||OPQA-312</t>
-  </si>
-  <si>
-    <t>OPQA-310_2</t>
-  </si>
-  <si>
-    <t>Verify that user2 create comment in user3 watching patent</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone comments on a patent contained in his watchlist</t>
-  </si>
-  <si>
-    <t>Verify that user receives a notification when someone he is following comments on a patent</t>
-  </si>
-  <si>
-    <t>OPQA-286_2</t>
-  </si>
-  <si>
-    <t>OPQA-1431</t>
-  </si>
-  <si>
-    <t>/comments/comment/(OPQA-1431_comments.id)</t>
-  </si>
-  <si>
-    <t>status=200||id=(OPQA-1431_comments.id)</t>
-  </si>
-  <si>
-    <t>OPQA-1432</t>
-  </si>
-  <si>
-    <t>OPQA-1433</t>
-  </si>
-  <si>
     <t>OPQA-236||OPQA-310</t>
   </si>
   <si>
@@ -483,9 +440,6 @@
   </si>
   <si>
     <t>status=200||comments.userId=(SYS_USER4)||comments.targetType=Post||comments.targetId=(OPQA-360_id)||comments.content=Notification Test</t>
-  </si>
-  <si>
-    <t>OPQA-1431||OPQA-310_2</t>
   </si>
   <si>
     <t>{"title":"Creating Post For API Notification Testing","content":"Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing Creating Post For API Notification Testing"}</t>
@@ -547,15 +501,6 @@
     <t>{
 "items":
 [{
-"id":"(OPQA-898_hits.id)",
-"type":"patents"
-}]
-}</t>
-  </si>
-  <si>
-    <t>{
-"items":
-[{
 "id":"(OPQA-874_hits.id)",
 "type":"wos"
 }]
@@ -583,18 +528,9 @@
     <t>{"targetType":"posts","targetId":"(OPQA-360_id)","content":"Notification Test(ddMMMyyyy_HHmmss)"}</t>
   </si>
   <si>
-    <t>{"targetType":"patents","targetId":"(OPQA-898_hits.id)","content":"Notification Test(ddMMMyyyy_HHmmss)"}</t>
-  </si>
-  <si>
     <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-385_comments.id)||comment.text=(OPQA-385_comments.content)</t>
   </si>
   <si>
-    <t>status=200||type=WatchedDocumentComment||comments.data.issuer.truid=(SYS_USER2)||comments.data.text=(OPQA-1431_comments.content)</t>
-  </si>
-  <si>
-    <t>status=200||type=DocumentComment||comment.issuer.truid=(SYS_USER2)||comment.text=(OPQA-1431_comments.content)</t>
-  </si>
-  <si>
     <t>status=200||type=Appreciation||profiles.truid=(SYS_USER3)||profiles.truid=(SYS_USER1)||comment.id=(OPQA-236_comments.id)||comment.text=(OPQA-236_comments.content)</t>
   </si>
   <si>
@@ -602,13 +538,20 @@
   </si>
   <si>
     <t>1PNOTIFYV1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>PASS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -712,6 +655,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -758,7 +709,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -790,9 +741,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -824,6 +776,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -999,29 +952,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L36"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="53.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="46.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="8.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="52.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="43.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="22.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="53.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="46.28515625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="8.85546875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="52.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="36.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="43.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="9.7109375" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1059,7 +1010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>21</v>
       </c>
@@ -1067,7 +1018,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
@@ -1081,11 +1032,17 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2"/>
+      <c r="I2"/>
       <c r="J2" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>26</v>
       </c>
@@ -1093,7 +1050,7 @@
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>23</v>
@@ -1101,14 +1058,21 @@
       <c r="E3" t="s">
         <v>19</v>
       </c>
+      <c r="F3"/>
       <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3"/>
+      <c r="I3"/>
       <c r="J3" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="30">
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1116,7 +1080,7 @@
         <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>18</v>
@@ -1134,47 +1098,52 @@
         <v>12</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="30">
-      <c r="A5" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>169</v>
+        <v>153</v>
+      </c>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" t="s">
+        <v>43</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>138</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="C6" t="s">
         <v>43</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E6" s="1" t="s">
         <v>13</v>
@@ -1182,81 +1151,97 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="4"/>
-      <c r="I6" s="1"/>
+      <c r="I6"/>
       <c r="J6" s="5" t="s">
         <v>45</v>
       </c>
       <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" t="s">
-        <v>49</v>
+      <c r="L6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>141</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>51</v>
+        <v>142</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="4"/>
+      <c r="F7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="5"/>
+      <c r="H7" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I7" s="1"/>
       <c r="J7" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:12" ht="60">
-      <c r="A8" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>16</v>
+        <v>143</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>129</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>122</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>55</v>
       </c>
       <c r="G8" s="5"/>
       <c r="H8" s="4" t="s">
-        <v>165</v>
-      </c>
-      <c r="I8" s="1"/>
+        <v>145</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>117</v>
+      </c>
       <c r="J8" s="5" t="s">
-        <v>160</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="90">
+        <v>12</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E9" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" s="8" t="s">
         <v>122</v>
       </c>
       <c r="F9" s="5" t="s">
@@ -1264,7 +1249,7 @@
       </c>
       <c r="G9" s="5"/>
       <c r="H9" s="4" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>117</v>
@@ -1273,101 +1258,115 @@
         <v>12</v>
       </c>
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:12" ht="90">
-      <c r="A10" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>130</v>
+      <c r="L9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>86</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="5"/>
-      <c r="H10" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>117</v>
+        <v>141</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G10"/>
+      <c r="H10" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="I10" t="s">
+        <v>119</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K10" s="1"/>
-    </row>
-    <row r="11" spans="1:12" ht="105">
-      <c r="A11" s="5" t="s">
-        <v>120</v>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="210" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>56</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="D11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F11" t="s">
-        <v>167</v>
-      </c>
-      <c r="H11" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="I11" t="s">
-        <v>119</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="210">
+      <c r="F11" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="I11" s="8"/>
+      <c r="J11" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="C12" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="9" t="s">
-        <v>14</v>
+      <c r="F12" s="11" t="s">
+        <v>32</v>
       </c>
       <c r="G12" s="8"/>
-      <c r="H12" s="9" t="s">
-        <v>157</v>
-      </c>
-      <c r="I12" s="8"/>
-      <c r="J12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30">
+      <c r="H12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J12" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>66</v>
@@ -1381,8 +1380,8 @@
       <c r="E13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="11" t="s">
-        <v>32</v>
+      <c r="F13" s="9" t="s">
+        <v>55</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="11" t="s">
@@ -1392,77 +1391,86 @@
         <v>56</v>
       </c>
       <c r="J13" s="8" t="s">
-        <v>68</v>
+        <v>111</v>
       </c>
       <c r="K13" s="8"/>
-    </row>
-    <row r="14" spans="1:12" ht="30">
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>69</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="C14" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
         <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="E14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="G14" s="8"/>
-      <c r="H14" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J14" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K14" s="8"/>
-    </row>
-    <row r="15" spans="1:12" ht="60">
-      <c r="A15" s="8" t="s">
-        <v>29</v>
+      <c r="H14" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="I14" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="75" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C15" t="s">
         <v>30</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" s="8"/>
-      <c r="H15" s="4" t="s">
-        <v>173</v>
+        <v>32</v>
+      </c>
+      <c r="G15"/>
+      <c r="H15" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="J15" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K15" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="75">
+        <v>80</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>78</v>
@@ -1477,8 +1485,9 @@
         <v>13</v>
       </c>
       <c r="F16" s="9" t="s">
-        <v>32</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="G16"/>
       <c r="H16" s="5" t="s">
         <v>65</v>
       </c>
@@ -1486,103 +1495,120 @@
         <v>29</v>
       </c>
       <c r="J16" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="75">
-      <c r="A17" t="s">
-        <v>81</v>
+        <v>82</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>121</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="C17" t="s">
+        <v>141</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F17" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17"/>
+      <c r="H17" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="I17" t="s">
+        <v>118</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="105" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C18" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="E17" t="s">
+      <c r="D18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I17" t="s">
-        <v>29</v>
-      </c>
-      <c r="J17" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="105">
-      <c r="A18" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
-      <c r="D18" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F18" t="s">
-        <v>167</v>
-      </c>
-      <c r="H18" s="5" t="s">
-        <v>168</v>
+      <c r="F18" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="9" t="s">
+        <v>161</v>
       </c>
       <c r="I18" t="s">
-        <v>118</v>
-      </c>
-      <c r="J18" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="105">
+        <v>56</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
-        <v>89</v>
+        <v>97</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10" t="s">
         <v>30</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>31</v>
+        <v>98</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>154</v>
+        <v>32</v>
       </c>
       <c r="G19" s="8"/>
       <c r="H19" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="I19" t="s">
-        <v>56</v>
+        <v>65</v>
+      </c>
+      <c r="I19" s="8" t="s">
+        <v>89</v>
       </c>
       <c r="J19" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="75">
+        <v>99</v>
+      </c>
+      <c r="K19" s="8"/>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="75" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>100</v>
@@ -1593,113 +1619,25 @@
       <c r="D20" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="E20" s="10" t="s">
+      <c r="E20" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G20" s="8"/>
-      <c r="H20" s="9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20"/>
+      <c r="H20" s="5" t="s">
         <v>65</v>
       </c>
       <c r="I20" s="8" t="s">
         <v>89</v>
       </c>
       <c r="J20" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="K20" s="8"/>
-    </row>
-    <row r="21" spans="1:11" ht="75">
-      <c r="A21" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="E21" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="9" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" ht="105">
-      <c r="A22" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" t="s">
-        <v>158</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F22" t="s">
-        <v>167</v>
-      </c>
-      <c r="H22" s="5" t="s">
-        <v>171</v>
-      </c>
-      <c r="I22" t="s">
-        <v>141</v>
-      </c>
-      <c r="J22" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60">
-      <c r="A23" s="8" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="8"/>
-      <c r="H23" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="I23" t="s">
-        <v>136</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="K23" s="9" t="s">
-        <v>174</v>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -1708,26 +1646,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L33"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="46.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="22" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="13.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="18.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="50" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="12.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="46.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="11.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="63.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="13.85546875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="50.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1765,7 +1703,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30">
+    <row r="2" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>46</v>
       </c>
@@ -1773,7 +1711,7 @@
         <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>23</v>
@@ -1787,14 +1725,19 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
+      <c r="H2"/>
       <c r="I2" t="s">
         <v>41</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" ht="30">
+      <c r="K2"/>
+      <c r="L2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1745,7 @@
         <v>53</v>
       </c>
       <c r="C3" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>23</v>
@@ -1816,14 +1759,19 @@
       <c r="G3" t="s">
         <v>25</v>
       </c>
+      <c r="H3"/>
       <c r="I3" t="s">
         <v>49</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" ht="45">
+      <c r="K3"/>
+      <c r="L3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>126</v>
       </c>
@@ -1831,7 +1779,7 @@
         <v>125</v>
       </c>
       <c r="C4" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D4" s="6" t="s">
         <v>23</v>
@@ -1845,14 +1793,19 @@
       <c r="G4" t="s">
         <v>25</v>
       </c>
+      <c r="H4"/>
       <c r="I4" s="5" t="s">
         <v>117</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45">
+        <v>164</v>
+      </c>
+      <c r="K4"/>
+      <c r="L4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>124</v>
       </c>
@@ -1860,7 +1813,7 @@
         <v>123</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D5" s="6" t="s">
         <v>23</v>
@@ -1874,14 +1827,19 @@
       <c r="G5" t="s">
         <v>25</v>
       </c>
+      <c r="H5"/>
       <c r="I5" s="5" t="s">
         <v>117</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="30">
+        <v>164</v>
+      </c>
+      <c r="K5"/>
+      <c r="L5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>61</v>
       </c>
@@ -1889,7 +1847,7 @@
         <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D6" s="6" t="s">
         <v>23</v>
@@ -1903,14 +1861,19 @@
       <c r="G6" t="s">
         <v>25</v>
       </c>
+      <c r="H6"/>
       <c r="I6" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" ht="30">
+      <c r="K6"/>
+      <c r="L6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>133</v>
       </c>
@@ -1918,7 +1881,7 @@
         <v>134</v>
       </c>
       <c r="C7" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D7" s="6" t="s">
         <v>23</v>
@@ -1932,14 +1895,19 @@
       <c r="G7" t="s">
         <v>25</v>
       </c>
+      <c r="H7"/>
       <c r="I7" s="8" t="s">
         <v>56</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" ht="60">
+      <c r="K7"/>
+      <c r="L7" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>70</v>
       </c>
@@ -1947,7 +1915,7 @@
         <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>23</v>
@@ -1961,14 +1929,19 @@
       <c r="G8" t="s">
         <v>25</v>
       </c>
+      <c r="H8"/>
       <c r="I8" t="s">
         <v>72</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" ht="45">
+      <c r="K8"/>
+      <c r="L8" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>33</v>
       </c>
@@ -1976,7 +1949,7 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D9" s="6" t="s">
         <v>23</v>
@@ -1990,14 +1963,19 @@
       <c r="G9" t="s">
         <v>25</v>
       </c>
+      <c r="H9"/>
       <c r="I9" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="J9" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="45">
+        <v>157</v>
+      </c>
+      <c r="K9"/>
+      <c r="L9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>75</v>
       </c>
@@ -2005,7 +1983,7 @@
         <v>76</v>
       </c>
       <c r="C10" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>23</v>
@@ -2019,14 +1997,19 @@
       <c r="G10" t="s">
         <v>25</v>
       </c>
+      <c r="H10"/>
       <c r="I10" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="60">
+        <v>158</v>
+      </c>
+      <c r="K10"/>
+      <c r="L10" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>83</v>
       </c>
@@ -2034,7 +2017,7 @@
         <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>23</v>
@@ -2048,14 +2031,19 @@
       <c r="G11" t="s">
         <v>25</v>
       </c>
+      <c r="H11"/>
       <c r="I11" t="s">
         <v>85</v>
       </c>
       <c r="J11" s="5" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45">
+        <v>163</v>
+      </c>
+      <c r="K11"/>
+      <c r="L11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>93</v>
       </c>
@@ -2063,7 +2051,7 @@
         <v>94</v>
       </c>
       <c r="C12" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>23</v>
@@ -2077,14 +2065,19 @@
       <c r="G12" t="s">
         <v>25</v>
       </c>
+      <c r="H12"/>
       <c r="I12" s="8" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="J12" s="5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="45">
+        <v>159</v>
+      </c>
+      <c r="K12"/>
+      <c r="L12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>95</v>
       </c>
@@ -2092,7 +2085,7 @@
         <v>96</v>
       </c>
       <c r="C13" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>23</v>
@@ -2106,14 +2099,19 @@
       <c r="G13" t="s">
         <v>25</v>
       </c>
+      <c r="H13"/>
       <c r="I13" s="8" t="s">
         <v>89</v>
       </c>
       <c r="J13" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="30">
+        <v>160</v>
+      </c>
+      <c r="K13"/>
+      <c r="L13" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12" t="s">
         <v>91</v>
       </c>
@@ -2121,7 +2119,7 @@
         <v>92</v>
       </c>
       <c r="C14" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>23</v>
@@ -2135,14 +2133,19 @@
       <c r="G14" t="s">
         <v>25</v>
       </c>
+      <c r="H14"/>
       <c r="I14" t="s">
         <v>89</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="60">
+      <c r="K14"/>
+      <c r="L14" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>131</v>
       </c>
@@ -2150,7 +2153,7 @@
         <v>132</v>
       </c>
       <c r="C15" t="s">
-        <v>186</v>
+        <v>165</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>23</v>
@@ -2164,216 +2167,168 @@
       <c r="G15" t="s">
         <v>25</v>
       </c>
+      <c r="H15"/>
       <c r="I15" t="s">
         <v>103</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45">
-      <c r="A16" s="8" t="s">
-        <v>150</v>
+        <v>162</v>
+      </c>
+      <c r="K15"/>
+      <c r="L15" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>107</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>144</v>
+        <v>108</v>
       </c>
       <c r="C16" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>74</v>
-      </c>
-      <c r="G16" t="s">
-        <v>25</v>
-      </c>
-      <c r="I16" t="s">
-        <v>156</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="H16"/>
+      <c r="I16"/>
       <c r="J16" s="5" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="45">
-      <c r="A17" s="8" t="s">
-        <v>151</v>
+        <v>109</v>
+      </c>
+      <c r="K16"/>
+      <c r="L16" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>110</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>145</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
-        <v>186</v>
+        <v>43</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F17" t="s">
-        <v>24</v>
-      </c>
-      <c r="G17" t="s">
-        <v>25</v>
-      </c>
-      <c r="I17" t="s">
-        <v>147</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="H17"/>
+      <c r="I17"/>
       <c r="J17" s="5" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="60">
-      <c r="A18" s="5" t="s">
-        <v>146</v>
+        <v>109</v>
+      </c>
+      <c r="K17"/>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>113</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="8"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K18" s="8"/>
+      <c r="L18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C19" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="E18" t="s">
-        <v>39</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" s="4" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11">
-      <c r="A19" t="s">
-        <v>107</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="C19" t="s">
-        <v>43</v>
-      </c>
       <c r="D19" s="6" t="s">
-        <v>44</v>
+        <v>104</v>
       </c>
       <c r="E19" t="s">
         <v>39</v>
       </c>
-      <c r="J19" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11">
-      <c r="A20" t="s">
-        <v>110</v>
+      <c r="F19" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G19"/>
+      <c r="H19"/>
+      <c r="I19" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19"/>
+      <c r="L19" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>36</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>108</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="E20" t="s">
         <v>39</v>
       </c>
-      <c r="J20" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11">
-      <c r="A21" t="s">
-        <v>113</v>
-      </c>
-      <c r="B21" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D21" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="K21" s="8"/>
-    </row>
-    <row r="22" spans="1:11" ht="60">
-      <c r="A22" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="B22" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="I22" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="60">
-      <c r="A23" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C23" t="s">
-        <v>30</v>
-      </c>
-      <c r="D23" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E23" t="s">
-        <v>39</v>
-      </c>
-      <c r="F23" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="I23" t="s">
+      <c r="G20"/>
+      <c r="H20"/>
+      <c r="I20" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="4" t="s">
+      <c r="J20" s="4" t="s">
         <v>40</v>
+      </c>
+      <c r="K20"/>
+      <c r="L20" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
